--- a/Data/SSC/TSS_grab_samples.xlsx
+++ b/Data/SSC/TSS_grab_samples.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\samoa\WATERSHED_ANALYSIS\TSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Fagaalu-Sediment-Flux\Data\SSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Grab_raw_input" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="99">
   <si>
     <t>Date Collected</t>
   </si>
@@ -354,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -601,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -869,6 +875,27 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,19 +1261,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R577"/>
+  <dimension ref="A1:R590"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H563" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H571" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A376" sqref="A376"/>
-      <selection pane="bottomRight" activeCell="A536" sqref="A536:Q577"/>
+      <selection pane="bottomRight" activeCell="I591" sqref="I591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="108" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="61"/>
+    <col min="2" max="2" width="9.140625" style="82"/>
+    <col min="3" max="3" width="9.140625" style="61"/>
     <col min="4" max="4" width="9.140625" style="68"/>
     <col min="5" max="5" width="9.7109375" style="60" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="62"/>
@@ -1267,7 +1295,7 @@
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="135" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">
@@ -1321,7 +1349,7 @@
       <c r="A2" s="107">
         <v>40914</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="136">
         <v>1232</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -1379,7 +1407,7 @@
       <c r="A3" s="107">
         <v>40914</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="136">
         <v>1242</v>
       </c>
       <c r="C3" s="56" t="s">
@@ -1437,7 +1465,7 @@
       <c r="A4" s="107">
         <v>40915</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="136">
         <v>1325</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -1495,7 +1523,7 @@
       <c r="A5" s="107">
         <v>40915</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="136">
         <v>1443</v>
       </c>
       <c r="C5" s="56" t="s">
@@ -1553,7 +1581,7 @@
       <c r="A6" s="107">
         <v>40919</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="136">
         <v>1200</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -1606,7 +1634,7 @@
       <c r="A7" s="107">
         <v>40919</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="136">
         <v>1200</v>
       </c>
       <c r="C7" s="56" t="s">
@@ -1657,7 +1685,7 @@
       <c r="A8" s="107">
         <v>40919</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="136">
         <v>1200</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -1710,7 +1738,7 @@
       <c r="A9" s="107">
         <v>40920</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="136">
         <v>1417</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -1768,7 +1796,7 @@
       <c r="A10" s="107">
         <v>40920</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="136">
         <v>1424</v>
       </c>
       <c r="C10" s="56" t="s">
@@ -1826,7 +1854,7 @@
       <c r="A11" s="107">
         <v>40920</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="136">
         <v>1424</v>
       </c>
       <c r="C11" s="56" t="s">
@@ -1884,7 +1912,7 @@
       <c r="A12" s="107">
         <v>40920</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="136">
         <v>1455</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -1940,7 +1968,7 @@
       <c r="A13" s="107">
         <v>40920</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="136">
         <v>1455</v>
       </c>
       <c r="C13" s="56" t="s">
@@ -1994,7 +2022,7 @@
       <c r="A14" s="107">
         <v>40921</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="136">
         <v>1301</v>
       </c>
       <c r="C14" s="56" t="s">
@@ -2052,7 +2080,7 @@
       <c r="A15" s="107">
         <v>40921</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="136">
         <v>1433</v>
       </c>
       <c r="C15" s="56" t="s">
@@ -2110,7 +2138,7 @@
       <c r="A16" s="107">
         <v>40926</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="136">
         <v>1424</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -2165,7 +2193,7 @@
       <c r="A17" s="107">
         <v>40926</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="136">
         <v>1424</v>
       </c>
       <c r="C17" s="56" t="s">
@@ -2218,7 +2246,7 @@
       <c r="A18" s="107">
         <v>40926</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="136">
         <v>1426</v>
       </c>
       <c r="C18" s="56" t="s">
@@ -2273,7 +2301,7 @@
       <c r="A19" s="107">
         <v>40926</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="136">
         <v>1450</v>
       </c>
       <c r="C19" s="56" t="s">
@@ -2328,7 +2356,7 @@
       <c r="A20" s="107">
         <v>40926</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="136">
         <v>1542</v>
       </c>
       <c r="C20" s="56" t="s">
@@ -2383,7 +2411,7 @@
       <c r="A21" s="107">
         <v>40926</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="137">
         <v>1546</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -2438,7 +2466,7 @@
       <c r="A22" s="107">
         <v>40926</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="137">
         <v>1546</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -2491,7 +2519,7 @@
       <c r="A23" s="107">
         <v>40926</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="136">
         <v>1546</v>
       </c>
       <c r="C23" s="56" t="s">
@@ -2546,7 +2574,7 @@
       <c r="A24" s="107">
         <v>40927</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="136">
         <v>900</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -2599,7 +2627,7 @@
       <c r="A25" s="107">
         <v>40927</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="136">
         <v>1420</v>
       </c>
       <c r="C25" s="56" t="s">
@@ -2652,7 +2680,7 @@
       <c r="A26" s="107">
         <v>40927</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="136">
         <v>1500</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -2705,7 +2733,7 @@
       <c r="A27" s="107">
         <v>40927</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="136">
         <v>1505</v>
       </c>
       <c r="C27" s="56" t="s">
@@ -2758,7 +2786,7 @@
       <c r="A28" s="107">
         <v>40927</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="136">
         <v>1529</v>
       </c>
       <c r="C28" s="56" t="s">
@@ -2811,7 +2839,7 @@
       <c r="A29" s="107">
         <v>40927</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="136">
         <v>1646</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -2864,7 +2892,7 @@
       <c r="A30" s="107">
         <v>40927</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="136">
         <v>1703</v>
       </c>
       <c r="C30" s="56" t="s">
@@ -2917,7 +2945,7 @@
       <c r="A32" s="108">
         <v>40926</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="136">
         <v>1500</v>
       </c>
       <c r="C32" s="56" t="s">
@@ -2967,7 +2995,7 @@
       <c r="A33" s="108">
         <v>40926</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="136">
         <v>1509</v>
       </c>
       <c r="C33" s="56" t="s">
@@ -3017,7 +3045,7 @@
       <c r="A34" s="108">
         <v>40926</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="136">
         <v>1491</v>
       </c>
       <c r="C34" s="56" t="s">
@@ -3067,7 +3095,7 @@
       <c r="A35" s="108">
         <v>40926</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="136">
         <v>1500</v>
       </c>
       <c r="C35" s="56" t="s">
@@ -3117,7 +3145,7 @@
       <c r="A36" s="108">
         <v>40931</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="136">
         <v>1730</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -3167,7 +3195,7 @@
       <c r="A37" s="108">
         <v>40928</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="136">
         <v>1259</v>
       </c>
       <c r="C37" s="56" t="s">
@@ -3217,7 +3245,7 @@
       <c r="A38" s="108">
         <v>40928</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="136">
         <v>1305</v>
       </c>
       <c r="C38" s="56" t="s">
@@ -3267,7 +3295,7 @@
       <c r="A39" s="108">
         <v>40928</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="136">
         <v>1256</v>
       </c>
       <c r="C39" s="56" t="s">
@@ -3317,7 +3345,7 @@
       <c r="A40" s="108">
         <v>40928</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="136">
         <v>1256</v>
       </c>
       <c r="C40" s="56" t="s">
@@ -3347,7 +3375,7 @@
       <c r="A41" s="108">
         <v>40926</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="136">
         <v>2000</v>
       </c>
       <c r="C41" s="56" t="s">
@@ -3397,7 +3425,7 @@
       <c r="A42" s="108">
         <v>40931</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="136">
         <v>1646</v>
       </c>
       <c r="C42" s="56" t="s">
@@ -3447,7 +3475,7 @@
       <c r="A43" s="108">
         <v>40931</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="136">
         <v>1646</v>
       </c>
       <c r="C43" s="56" t="s">
@@ -3476,7 +3504,7 @@
       <c r="A44" s="108">
         <v>40926</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="136">
         <v>1440</v>
       </c>
       <c r="C44" s="56" t="s">
@@ -3526,7 +3554,7 @@
       <c r="A45" s="108">
         <v>40931</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="136">
         <v>1720</v>
       </c>
       <c r="C45" s="56" t="s">
@@ -3576,7 +3604,7 @@
       <c r="A46" s="108">
         <v>40931</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="136">
         <v>1606</v>
       </c>
       <c r="C46" s="56" t="s">
@@ -3626,7 +3654,7 @@
       <c r="A47" s="108">
         <v>40926</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="136">
         <v>1510</v>
       </c>
       <c r="C47" s="56" t="s">
@@ -3676,7 +3704,7 @@
       <c r="A49" s="108">
         <v>40932</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="82">
         <v>910</v>
       </c>
       <c r="C49" s="61" t="s">
@@ -3726,7 +3754,7 @@
       <c r="A50" s="108">
         <v>40932</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="82">
         <v>910</v>
       </c>
       <c r="C50" s="61" t="s">
@@ -3757,7 +3785,7 @@
       <c r="A51" s="108">
         <v>40932</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="82">
         <v>920</v>
       </c>
       <c r="C51" s="61" t="s">
@@ -3807,7 +3835,7 @@
       <c r="A52" s="108">
         <v>40932</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="82">
         <v>920</v>
       </c>
       <c r="C52" s="61" t="s">
@@ -3837,7 +3865,7 @@
       <c r="A54" s="108">
         <v>40933</v>
       </c>
-      <c r="B54" s="61">
+      <c r="B54" s="82">
         <v>1215</v>
       </c>
       <c r="C54" s="61" t="s">
@@ -3887,7 +3915,7 @@
       <c r="A55" s="108">
         <v>40933</v>
       </c>
-      <c r="B55" s="61">
+      <c r="B55" s="82">
         <v>1030</v>
       </c>
       <c r="C55" s="61" t="s">
@@ -3937,7 +3965,7 @@
       <c r="A56" s="108">
         <v>40933</v>
       </c>
-      <c r="B56" s="61">
+      <c r="B56" s="82">
         <v>1354</v>
       </c>
       <c r="C56" s="61" t="s">
@@ -3987,7 +4015,7 @@
       <c r="A57" s="108">
         <v>40933</v>
       </c>
-      <c r="B57" s="61">
+      <c r="B57" s="82">
         <v>1225</v>
       </c>
       <c r="C57" s="61" t="s">
@@ -4037,7 +4065,7 @@
       <c r="A58" s="108">
         <v>40933</v>
       </c>
-      <c r="B58" s="61">
+      <c r="B58" s="82">
         <v>1515</v>
       </c>
       <c r="C58" s="61" t="s">
@@ -4087,7 +4115,7 @@
       <c r="A59" s="108">
         <v>40933</v>
       </c>
-      <c r="B59" s="61">
+      <c r="B59" s="82">
         <v>1540</v>
       </c>
       <c r="C59" s="61" t="s">
@@ -4137,7 +4165,7 @@
       <c r="A60" s="108">
         <v>40933</v>
       </c>
-      <c r="B60" s="61">
+      <c r="B60" s="82">
         <v>1000</v>
       </c>
       <c r="C60" s="61" t="s">
@@ -4187,7 +4215,7 @@
       <c r="A61" s="108">
         <v>40933</v>
       </c>
-      <c r="B61" s="61">
+      <c r="B61" s="82">
         <v>1000</v>
       </c>
       <c r="C61" s="61" t="s">
@@ -4213,7 +4241,7 @@
       <c r="A62" s="108">
         <v>40933</v>
       </c>
-      <c r="B62" s="61">
+      <c r="B62" s="82">
         <v>1047</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -4263,7 +4291,7 @@
       <c r="A63" s="108">
         <v>40933</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B63" s="82">
         <v>1020</v>
       </c>
       <c r="C63" s="61" t="s">
@@ -4313,7 +4341,7 @@
       <c r="A64" s="108">
         <v>40933</v>
       </c>
-      <c r="B64" s="61">
+      <c r="B64" s="82">
         <v>1025</v>
       </c>
       <c r="C64" s="61" t="s">
@@ -4363,7 +4391,7 @@
       <c r="A65" s="108">
         <v>40933</v>
       </c>
-      <c r="B65" s="61">
+      <c r="B65" s="82">
         <v>1900</v>
       </c>
       <c r="C65" s="61" t="s">
@@ -4413,7 +4441,7 @@
       <c r="A66" s="108">
         <v>40933</v>
       </c>
-      <c r="B66" s="61">
+      <c r="B66" s="82">
         <v>1230</v>
       </c>
       <c r="C66" s="61" t="s">
@@ -4463,7 +4491,7 @@
       <c r="A67" s="108">
         <v>40933</v>
       </c>
-      <c r="B67" s="61">
+      <c r="B67" s="82">
         <v>845</v>
       </c>
       <c r="C67" s="61" t="s">
@@ -4513,7 +4541,7 @@
       <c r="A68" s="108">
         <v>40933</v>
       </c>
-      <c r="B68" s="61">
+      <c r="B68" s="82">
         <v>1505</v>
       </c>
       <c r="C68" s="61" t="s">
@@ -4563,7 +4591,7 @@
       <c r="A69" s="108">
         <v>40933</v>
       </c>
-      <c r="B69" s="61">
+      <c r="B69" s="82">
         <v>1454</v>
       </c>
       <c r="C69" s="61" t="s">
@@ -4613,7 +4641,7 @@
       <c r="A70" s="108">
         <v>40933</v>
       </c>
-      <c r="B70" s="61">
+      <c r="B70" s="82">
         <v>1530</v>
       </c>
       <c r="C70" s="61" t="s">
@@ -4663,7 +4691,7 @@
       <c r="A71" s="108">
         <v>40933</v>
       </c>
-      <c r="B71" s="61">
+      <c r="B71" s="82">
         <v>1530</v>
       </c>
       <c r="C71" s="61" t="s">
@@ -4680,7 +4708,7 @@
       <c r="A72" s="108">
         <v>40933</v>
       </c>
-      <c r="B72" s="61">
+      <c r="B72" s="82">
         <v>1845</v>
       </c>
       <c r="C72" s="61" t="s">
@@ -4730,7 +4758,7 @@
       <c r="A73" s="108">
         <v>40933</v>
       </c>
-      <c r="B73" s="61">
+      <c r="B73" s="82">
         <v>1845</v>
       </c>
       <c r="C73" s="61" t="s">
@@ -4747,7 +4775,7 @@
       <c r="A74" s="108">
         <v>40933</v>
       </c>
-      <c r="B74" s="61">
+      <c r="B74" s="82">
         <v>1113</v>
       </c>
       <c r="C74" s="61" t="s">
@@ -4797,7 +4825,7 @@
       <c r="A75" s="108">
         <v>40933</v>
       </c>
-      <c r="B75" s="61">
+      <c r="B75" s="82">
         <v>1113</v>
       </c>
       <c r="C75" s="61" t="s">
@@ -4814,7 +4842,7 @@
       <c r="A76" s="108">
         <v>40933</v>
       </c>
-      <c r="B76" s="61">
+      <c r="B76" s="82">
         <v>856</v>
       </c>
       <c r="C76" s="61" t="s">
@@ -4864,7 +4892,7 @@
       <c r="A77" s="108">
         <v>40933</v>
       </c>
-      <c r="B77" s="61">
+      <c r="B77" s="82">
         <v>1205</v>
       </c>
       <c r="C77" s="61" t="s">
@@ -4914,7 +4942,7 @@
       <c r="A78" s="108">
         <v>40933</v>
       </c>
-      <c r="B78" s="61">
+      <c r="B78" s="82">
         <v>850</v>
       </c>
       <c r="C78" s="61" t="s">
@@ -4964,7 +4992,7 @@
       <c r="A79" s="108">
         <v>40933</v>
       </c>
-      <c r="B79" s="61">
+      <c r="B79" s="82">
         <v>1051</v>
       </c>
       <c r="C79" s="61" t="s">
@@ -5014,7 +5042,7 @@
       <c r="A80" s="108">
         <v>40933</v>
       </c>
-      <c r="B80" s="61">
+      <c r="B80" s="82">
         <v>1337</v>
       </c>
       <c r="C80" s="61" t="s">
@@ -5064,7 +5092,7 @@
       <c r="A81" s="108">
         <v>40933</v>
       </c>
-      <c r="B81" s="61">
+      <c r="B81" s="82">
         <v>1606</v>
       </c>
       <c r="C81" s="61" t="s">
@@ -5114,7 +5142,7 @@
       <c r="A82" s="108">
         <v>40933</v>
       </c>
-      <c r="B82" s="61">
+      <c r="B82" s="82">
         <v>920</v>
       </c>
       <c r="C82" s="61" t="s">
@@ -5164,7 +5192,7 @@
       <c r="A83" s="108">
         <v>40933</v>
       </c>
-      <c r="B83" s="61">
+      <c r="B83" s="82">
         <v>920</v>
       </c>
       <c r="C83" s="61" t="s">
@@ -5184,7 +5212,7 @@
       <c r="A85" s="108">
         <v>40935</v>
       </c>
-      <c r="B85" s="61">
+      <c r="B85" s="82">
         <v>1028</v>
       </c>
       <c r="C85" s="61" t="s">
@@ -5234,7 +5262,7 @@
       <c r="A86" s="108">
         <v>40935</v>
       </c>
-      <c r="B86" s="61">
+      <c r="B86" s="82">
         <v>1137</v>
       </c>
       <c r="C86" s="61" t="s">
@@ -5278,7 +5306,7 @@
       <c r="A87" s="108">
         <v>40935</v>
       </c>
-      <c r="B87" s="61">
+      <c r="B87" s="82">
         <v>1154</v>
       </c>
       <c r="C87" s="61" t="s">
@@ -5322,7 +5350,7 @@
       <c r="A88" s="108">
         <v>40935</v>
       </c>
-      <c r="B88" s="61">
+      <c r="B88" s="82">
         <v>1204</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -5366,7 +5394,7 @@
       <c r="A89" s="108">
         <v>40935</v>
       </c>
-      <c r="B89" s="61">
+      <c r="B89" s="82">
         <v>1217</v>
       </c>
       <c r="C89" s="61" t="s">
@@ -5410,7 +5438,7 @@
       <c r="A90" s="108">
         <v>40935</v>
       </c>
-      <c r="B90" s="61">
+      <c r="B90" s="82">
         <v>1233</v>
       </c>
       <c r="C90" s="61" t="s">
@@ -5454,7 +5482,7 @@
       <c r="A91" s="108">
         <v>40935</v>
       </c>
-      <c r="B91" s="61">
+      <c r="B91" s="82">
         <v>1317</v>
       </c>
       <c r="C91" s="61" t="s">
@@ -5498,7 +5526,7 @@
       <c r="A92" s="108">
         <v>40935</v>
       </c>
-      <c r="B92" s="61">
+      <c r="B92" s="82">
         <v>1340</v>
       </c>
       <c r="C92" s="61" t="s">
@@ -5542,7 +5570,7 @@
       <c r="A93" s="108">
         <v>40935</v>
       </c>
-      <c r="B93" s="61">
+      <c r="B93" s="82">
         <v>1446</v>
       </c>
       <c r="C93" s="61" t="s">
@@ -5586,7 +5614,7 @@
       <c r="A94" s="108">
         <v>40934</v>
       </c>
-      <c r="B94" s="61">
+      <c r="B94" s="82">
         <v>1645</v>
       </c>
       <c r="C94" s="61" t="s">
@@ -5630,7 +5658,7 @@
       <c r="A95" s="108">
         <v>40935</v>
       </c>
-      <c r="B95" s="61">
+      <c r="B95" s="82">
         <v>1133</v>
       </c>
       <c r="C95" s="61" t="s">
@@ -5671,7 +5699,7 @@
       <c r="A96" s="108">
         <v>40935</v>
       </c>
-      <c r="B96" s="61">
+      <c r="B96" s="82">
         <v>1222</v>
       </c>
       <c r="C96" s="61" t="s">
@@ -5712,7 +5740,7 @@
       <c r="A97" s="108">
         <v>40935</v>
       </c>
-      <c r="B97" s="61">
+      <c r="B97" s="82">
         <v>1100</v>
       </c>
       <c r="C97" s="61" t="s">
@@ -5756,7 +5784,7 @@
       <c r="A98" s="108">
         <v>40935</v>
       </c>
-      <c r="B98" s="61">
+      <c r="B98" s="82">
         <v>1100</v>
       </c>
       <c r="C98" s="61" t="s">
@@ -5776,7 +5804,7 @@
       <c r="A100" s="108">
         <v>40935</v>
       </c>
-      <c r="B100" s="61">
+      <c r="B100" s="82">
         <v>1147</v>
       </c>
       <c r="C100" s="61" t="s">
@@ -5793,7 +5821,7 @@
       <c r="A101" s="108">
         <v>40935</v>
       </c>
-      <c r="B101" s="61">
+      <c r="B101" s="82">
         <v>1120</v>
       </c>
       <c r="C101" s="61" t="s">
@@ -5810,7 +5838,7 @@
       <c r="A102" s="108">
         <v>40935</v>
       </c>
-      <c r="B102" s="61">
+      <c r="B102" s="82">
         <v>1227</v>
       </c>
       <c r="C102" s="61" t="s">
@@ -5848,7 +5876,7 @@
       <c r="A103" s="108">
         <v>40935</v>
       </c>
-      <c r="B103" s="61">
+      <c r="B103" s="82">
         <v>1427</v>
       </c>
       <c r="C103" s="61" t="s">
@@ -5863,7 +5891,7 @@
       <c r="A104" s="108">
         <v>40935</v>
       </c>
-      <c r="B104" s="61">
+      <c r="B104" s="82">
         <v>1326</v>
       </c>
       <c r="C104" s="61" t="s">
@@ -5901,7 +5929,7 @@
       <c r="A105" s="108">
         <v>40940</v>
       </c>
-      <c r="B105" s="61">
+      <c r="B105" s="82">
         <v>1300</v>
       </c>
       <c r="C105" s="61" t="s">
@@ -5939,7 +5967,7 @@
       <c r="A106" s="108">
         <v>40935</v>
       </c>
-      <c r="B106" s="61">
+      <c r="B106" s="82">
         <v>1120</v>
       </c>
       <c r="C106" s="61" t="s">
@@ -5954,7 +5982,7 @@
       <c r="A107" s="108">
         <v>40934</v>
       </c>
-      <c r="B107" s="61">
+      <c r="B107" s="82">
         <v>1653</v>
       </c>
       <c r="C107" s="61" t="s">
@@ -5995,7 +6023,7 @@
       <c r="A108" s="108">
         <v>40935</v>
       </c>
-      <c r="B108" s="61">
+      <c r="B108" s="82">
         <v>1036</v>
       </c>
       <c r="C108" s="61" t="s">
@@ -6036,7 +6064,7 @@
       <c r="A109" s="108">
         <v>40935</v>
       </c>
-      <c r="B109" s="61">
+      <c r="B109" s="82">
         <v>1051</v>
       </c>
       <c r="C109" s="61" t="s">
@@ -6077,7 +6105,7 @@
       <c r="A110" s="108">
         <v>40938</v>
       </c>
-      <c r="B110" s="61">
+      <c r="B110" s="82">
         <v>1706</v>
       </c>
       <c r="C110" s="61" t="s">
@@ -6118,7 +6146,7 @@
       <c r="A111" s="108">
         <v>40940</v>
       </c>
-      <c r="B111" s="61">
+      <c r="B111" s="82">
         <v>1220</v>
       </c>
       <c r="C111" s="61" t="s">
@@ -6159,7 +6187,7 @@
       <c r="A112" s="108">
         <v>40940</v>
       </c>
-      <c r="B112" s="61">
+      <c r="B112" s="82">
         <v>1246</v>
       </c>
       <c r="C112" s="61" t="s">
@@ -6200,7 +6228,7 @@
       <c r="A113" s="108">
         <v>40941</v>
       </c>
-      <c r="B113" s="61">
+      <c r="B113" s="82">
         <v>1339</v>
       </c>
       <c r="C113" s="61" t="s">
@@ -6241,7 +6269,7 @@
       <c r="A115" s="108">
         <v>40945</v>
       </c>
-      <c r="B115" s="61">
+      <c r="B115" s="82">
         <v>1116</v>
       </c>
       <c r="C115" s="61" t="s">
@@ -6282,7 +6310,7 @@
       <c r="A116" s="108">
         <v>40945</v>
       </c>
-      <c r="B116" s="61">
+      <c r="B116" s="82">
         <v>1336</v>
       </c>
       <c r="C116" s="61" t="s">
@@ -6323,7 +6351,7 @@
       <c r="A117" s="108">
         <v>40942</v>
       </c>
-      <c r="B117" s="61">
+      <c r="B117" s="82">
         <v>905</v>
       </c>
       <c r="C117" s="61" t="s">
@@ -6364,7 +6392,7 @@
       <c r="A118" s="108">
         <v>40942</v>
       </c>
-      <c r="B118" s="61">
+      <c r="B118" s="82">
         <v>940</v>
       </c>
       <c r="C118" s="61" t="s">
@@ -6405,7 +6433,7 @@
       <c r="A119" s="108">
         <v>40942</v>
       </c>
-      <c r="B119" s="61">
+      <c r="B119" s="82">
         <v>958</v>
       </c>
       <c r="C119" s="61" t="s">
@@ -6446,7 +6474,7 @@
       <c r="A120" s="108">
         <v>40942</v>
       </c>
-      <c r="B120" s="61">
+      <c r="B120" s="82">
         <v>1055</v>
       </c>
       <c r="C120" s="61" t="s">
@@ -6487,7 +6515,7 @@
       <c r="A121" s="108">
         <v>40942</v>
       </c>
-      <c r="B121" s="61">
+      <c r="B121" s="82">
         <v>842</v>
       </c>
       <c r="C121" s="61" t="s">
@@ -6528,7 +6556,7 @@
       <c r="A122" s="108">
         <v>40942</v>
       </c>
-      <c r="B122" s="61">
+      <c r="B122" s="82">
         <v>1110</v>
       </c>
       <c r="C122" s="61" t="s">
@@ -6569,7 +6597,7 @@
       <c r="A123" s="108">
         <v>40942</v>
       </c>
-      <c r="B123" s="61">
+      <c r="B123" s="82">
         <v>1130</v>
       </c>
       <c r="C123" s="61" t="s">
@@ -6610,7 +6638,7 @@
       <c r="A124" s="108">
         <v>40942</v>
       </c>
-      <c r="B124" s="61">
+      <c r="B124" s="82">
         <v>1018</v>
       </c>
       <c r="C124" s="61" t="s">
@@ -6651,7 +6679,7 @@
       <c r="A125" s="108">
         <v>40942</v>
       </c>
-      <c r="B125" s="61">
+      <c r="B125" s="82">
         <v>809</v>
       </c>
       <c r="C125" s="61" t="s">
@@ -6692,7 +6720,7 @@
       <c r="A126" s="108">
         <v>40945</v>
       </c>
-      <c r="B126" s="61">
+      <c r="B126" s="82">
         <v>1104</v>
       </c>
       <c r="C126" s="61" t="s">
@@ -6733,7 +6761,7 @@
       <c r="A127" s="108">
         <v>40942</v>
       </c>
-      <c r="B127" s="61">
+      <c r="B127" s="82">
         <v>1040</v>
       </c>
       <c r="C127" s="61" t="s">
@@ -6774,7 +6802,7 @@
       <c r="A128" s="108">
         <v>40945</v>
       </c>
-      <c r="B128" s="61">
+      <c r="B128" s="82">
         <v>1240</v>
       </c>
       <c r="C128" s="61" t="s">
@@ -6815,7 +6843,7 @@
       <c r="A129" s="108">
         <v>40942</v>
       </c>
-      <c r="B129" s="61">
+      <c r="B129" s="82">
         <v>815</v>
       </c>
       <c r="C129" s="61" t="s">
@@ -6856,7 +6884,7 @@
       <c r="A130" s="108">
         <v>40945</v>
       </c>
-      <c r="B130" s="61">
+      <c r="B130" s="82">
         <v>1110</v>
       </c>
       <c r="C130" s="61" t="s">
@@ -6897,7 +6925,7 @@
       <c r="A131" s="108">
         <v>40942</v>
       </c>
-      <c r="B131" s="61">
+      <c r="B131" s="82">
         <v>849</v>
       </c>
       <c r="C131" s="61" t="s">
@@ -6938,7 +6966,7 @@
       <c r="A132" s="108">
         <v>40942</v>
       </c>
-      <c r="B132" s="61">
+      <c r="B132" s="82">
         <v>829</v>
       </c>
       <c r="C132" s="61" t="s">
@@ -6979,7 +7007,7 @@
       <c r="A133" s="108">
         <v>40942</v>
       </c>
-      <c r="B133" s="61">
+      <c r="B133" s="82">
         <v>817</v>
       </c>
       <c r="C133" s="61" t="s">
@@ -7020,7 +7048,7 @@
       <c r="A134" s="108">
         <v>40945</v>
       </c>
-      <c r="B134" s="61">
+      <c r="B134" s="82">
         <v>1150</v>
       </c>
       <c r="C134" s="61" t="s">
@@ -7061,7 +7089,7 @@
       <c r="A135" s="108">
         <v>40942</v>
       </c>
-      <c r="B135" s="61">
+      <c r="B135" s="82">
         <v>927</v>
       </c>
       <c r="C135" s="61" t="s">
@@ -7102,7 +7130,7 @@
       <c r="A136" s="108">
         <v>40945</v>
       </c>
-      <c r="B136" s="61">
+      <c r="B136" s="82">
         <v>1059</v>
       </c>
       <c r="C136" s="61" t="s">
@@ -7143,7 +7171,7 @@
       <c r="A137" s="108">
         <v>40942</v>
       </c>
-      <c r="B137" s="61">
+      <c r="B137" s="82">
         <v>822</v>
       </c>
       <c r="C137" s="61" t="s">
@@ -7184,7 +7212,7 @@
       <c r="A138" s="108">
         <v>40945</v>
       </c>
-      <c r="B138" s="61">
+      <c r="B138" s="82">
         <v>1054</v>
       </c>
       <c r="C138" s="61" t="s">
@@ -7225,7 +7253,7 @@
       <c r="A140" s="108">
         <v>40945</v>
       </c>
-      <c r="B140" s="61">
+      <c r="B140" s="82">
         <v>1636</v>
       </c>
       <c r="C140" s="61" t="s">
@@ -7269,7 +7297,7 @@
       <c r="A141" s="108">
         <v>40945</v>
       </c>
-      <c r="B141" s="61">
+      <c r="B141" s="82">
         <v>1658</v>
       </c>
       <c r="C141" s="61" t="s">
@@ -7310,7 +7338,7 @@
       <c r="A142" s="108">
         <v>40945</v>
       </c>
-      <c r="B142" s="61">
+      <c r="B142" s="82">
         <v>1610</v>
       </c>
       <c r="C142" s="61" t="s">
@@ -7348,7 +7376,7 @@
       <c r="A143" s="108">
         <v>40945</v>
       </c>
-      <c r="B143" s="61">
+      <c r="B143" s="82">
         <v>1550</v>
       </c>
       <c r="C143" s="61" t="s">
@@ -7386,7 +7414,7 @@
       <c r="A144" s="108">
         <v>40945</v>
       </c>
-      <c r="B144" s="61">
+      <c r="B144" s="82">
         <v>1536</v>
       </c>
       <c r="C144" s="61" t="s">
@@ -7424,7 +7452,7 @@
       <c r="A145" s="108">
         <v>40945</v>
       </c>
-      <c r="B145" s="61">
+      <c r="B145" s="82">
         <v>1533</v>
       </c>
       <c r="C145" s="61" t="s">
@@ -7462,7 +7490,7 @@
       <c r="A146" s="108">
         <v>40945</v>
       </c>
-      <c r="B146" s="61">
+      <c r="B146" s="82">
         <v>1652</v>
       </c>
       <c r="C146" s="61" t="s">
@@ -7500,7 +7528,7 @@
       <c r="A147" s="108">
         <v>40945</v>
       </c>
-      <c r="B147" s="61">
+      <c r="B147" s="82">
         <v>1541</v>
       </c>
       <c r="C147" s="61" t="s">
@@ -7538,7 +7566,7 @@
       <c r="A148" s="108">
         <v>40945</v>
       </c>
-      <c r="B148" s="61">
+      <c r="B148" s="82">
         <v>1126</v>
       </c>
       <c r="C148" s="61" t="s">
@@ -7576,7 +7604,7 @@
       <c r="A149" s="108">
         <v>40945</v>
       </c>
-      <c r="B149" s="61">
+      <c r="B149" s="82">
         <v>1121</v>
       </c>
       <c r="C149" s="61" t="s">
@@ -7614,7 +7642,7 @@
       <c r="A150" s="108">
         <v>40945</v>
       </c>
-      <c r="B150" s="61">
+      <c r="B150" s="82">
         <v>1544</v>
       </c>
       <c r="C150" s="61" t="s">
@@ -7652,7 +7680,7 @@
       <c r="A151" s="108">
         <v>40945</v>
       </c>
-      <c r="B151" s="61">
+      <c r="B151" s="82">
         <v>1646</v>
       </c>
       <c r="C151" s="61" t="s">
@@ -7690,7 +7718,7 @@
       <c r="A152" s="108">
         <v>40945</v>
       </c>
-      <c r="B152" s="61">
+      <c r="B152" s="82">
         <v>1604</v>
       </c>
       <c r="C152" s="61" t="s">
@@ -7728,7 +7756,7 @@
       <c r="A153" s="108">
         <v>40945</v>
       </c>
-      <c r="B153" s="61">
+      <c r="B153" s="82">
         <v>1555</v>
       </c>
       <c r="C153" s="61" t="s">
@@ -7766,7 +7794,7 @@
       <c r="A154" s="108">
         <v>40945</v>
       </c>
-      <c r="B154" s="61">
+      <c r="B154" s="82">
         <v>1143</v>
       </c>
       <c r="C154" s="61" t="s">
@@ -7804,7 +7832,7 @@
       <c r="A155" s="108">
         <v>40946</v>
       </c>
-      <c r="B155" s="61">
+      <c r="B155" s="82">
         <v>1600</v>
       </c>
       <c r="C155" s="61" t="s">
@@ -7842,7 +7870,7 @@
       <c r="A156" s="108">
         <v>40946</v>
       </c>
-      <c r="B156" s="61">
+      <c r="B156" s="82">
         <v>1228</v>
       </c>
       <c r="C156" s="61" t="s">
@@ -7880,7 +7908,7 @@
       <c r="A157" s="108">
         <v>40945</v>
       </c>
-      <c r="B157" s="61">
+      <c r="B157" s="82">
         <v>1937</v>
       </c>
       <c r="C157" s="61" t="s">
@@ -7918,7 +7946,7 @@
       <c r="A158" s="108">
         <v>40946</v>
       </c>
-      <c r="B158" s="61">
+      <c r="B158" s="82">
         <v>1133</v>
       </c>
       <c r="C158" s="61" t="s">
@@ -7956,7 +7984,7 @@
       <c r="A159" s="108">
         <v>40947</v>
       </c>
-      <c r="B159" s="61">
+      <c r="B159" s="82">
         <v>1704</v>
       </c>
       <c r="C159" s="61" t="s">
@@ -7994,7 +8022,7 @@
       <c r="A160" s="108">
         <v>40947</v>
       </c>
-      <c r="B160" s="61">
+      <c r="B160" s="82">
         <v>1615</v>
       </c>
       <c r="C160" s="61" t="s">
@@ -8032,7 +8060,7 @@
       <c r="A161" s="108">
         <v>40948</v>
       </c>
-      <c r="B161" s="61">
+      <c r="B161" s="82">
         <v>1235</v>
       </c>
       <c r="C161" s="61" t="s">
@@ -8070,7 +8098,7 @@
       <c r="A163" s="108">
         <v>40953</v>
       </c>
-      <c r="B163" s="61">
+      <c r="B163" s="82">
         <v>915</v>
       </c>
       <c r="C163" s="61" t="s">
@@ -8115,7 +8143,7 @@
       <c r="A164" s="108">
         <v>40953</v>
       </c>
-      <c r="B164" s="61">
+      <c r="B164" s="82">
         <v>928</v>
       </c>
       <c r="C164" s="61" t="s">
@@ -8157,7 +8185,7 @@
       <c r="A165" s="108">
         <v>40953</v>
       </c>
-      <c r="B165" s="61">
+      <c r="B165" s="82">
         <v>939</v>
       </c>
       <c r="C165" s="61" t="s">
@@ -8199,7 +8227,7 @@
       <c r="A166" s="108">
         <v>40953</v>
       </c>
-      <c r="B166" s="61">
+      <c r="B166" s="82">
         <v>939</v>
       </c>
       <c r="C166" s="61" t="s">
@@ -8217,7 +8245,7 @@
       <c r="A167" s="108">
         <v>40956</v>
       </c>
-      <c r="B167" s="61">
+      <c r="B167" s="82">
         <v>1537</v>
       </c>
       <c r="C167" s="61" t="s">
@@ -8259,7 +8287,7 @@
       <c r="A168" s="108">
         <v>40956</v>
       </c>
-      <c r="B168" s="61">
+      <c r="B168" s="82">
         <v>1513</v>
       </c>
       <c r="C168" s="61" t="s">
@@ -8301,7 +8329,7 @@
       <c r="A169" s="108">
         <v>40956</v>
       </c>
-      <c r="B169" s="61">
+      <c r="B169" s="82">
         <v>1513</v>
       </c>
       <c r="C169" s="61" t="s">
@@ -8319,7 +8347,7 @@
       <c r="A170" s="108">
         <v>40956</v>
       </c>
-      <c r="B170" s="61">
+      <c r="B170" s="82">
         <v>1435</v>
       </c>
       <c r="C170" s="61" t="s">
@@ -8361,7 +8389,7 @@
       <c r="A171" s="108">
         <v>40956</v>
       </c>
-      <c r="B171" s="61">
+      <c r="B171" s="82">
         <v>1435</v>
       </c>
       <c r="C171" s="61" t="s">
@@ -8379,7 +8407,7 @@
       <c r="A172" s="108">
         <v>40957</v>
       </c>
-      <c r="B172" s="61">
+      <c r="B172" s="82">
         <v>1135</v>
       </c>
       <c r="C172" s="61" t="s">
@@ -8421,7 +8449,7 @@
       <c r="A173" s="108">
         <v>40957</v>
       </c>
-      <c r="B173" s="61">
+      <c r="B173" s="82">
         <v>1135</v>
       </c>
       <c r="C173" s="61" t="s">
@@ -8439,7 +8467,7 @@
       <c r="A174" s="108">
         <v>40957</v>
       </c>
-      <c r="B174" s="61">
+      <c r="B174" s="82">
         <v>1110</v>
       </c>
       <c r="C174" s="61" t="s">
@@ -8481,7 +8509,7 @@
       <c r="A175" s="108">
         <v>40957</v>
       </c>
-      <c r="B175" s="61">
+      <c r="B175" s="82">
         <v>1118</v>
       </c>
       <c r="C175" s="61" t="s">
@@ -8523,7 +8551,7 @@
       <c r="A176" s="108">
         <v>40957</v>
       </c>
-      <c r="B176" s="61">
+      <c r="B176" s="82">
         <v>1123</v>
       </c>
       <c r="C176" s="61" t="s">
@@ -8565,7 +8593,7 @@
       <c r="A178" s="108">
         <v>40973</v>
       </c>
-      <c r="B178" s="61">
+      <c r="B178" s="82">
         <v>943</v>
       </c>
       <c r="C178" s="61" t="s">
@@ -8615,7 +8643,7 @@
       <c r="A179" s="108">
         <v>40973</v>
       </c>
-      <c r="B179" s="61">
+      <c r="B179" s="82">
         <v>949</v>
       </c>
       <c r="C179" s="61" t="s">
@@ -8656,7 +8684,7 @@
       <c r="A180" s="108">
         <v>40973</v>
       </c>
-      <c r="B180" s="61">
+      <c r="B180" s="82">
         <v>955</v>
       </c>
       <c r="C180" s="61" t="s">
@@ -8697,7 +8725,7 @@
       <c r="A181" s="108">
         <v>40973</v>
       </c>
-      <c r="B181" s="61">
+      <c r="B181" s="82">
         <v>1003</v>
       </c>
       <c r="C181" s="61" t="s">
@@ -8738,7 +8766,7 @@
       <c r="A182" s="108">
         <v>40973</v>
       </c>
-      <c r="B182" s="61">
+      <c r="B182" s="82">
         <v>1014</v>
       </c>
       <c r="C182" s="61" t="s">
@@ -8779,7 +8807,7 @@
       <c r="A183" s="108">
         <v>40973</v>
       </c>
-      <c r="B183" s="61">
+      <c r="B183" s="82">
         <v>1023</v>
       </c>
       <c r="C183" s="61" t="s">
@@ -8820,7 +8848,7 @@
       <c r="A184" s="108">
         <v>40973</v>
       </c>
-      <c r="B184" s="61">
+      <c r="B184" s="82">
         <v>1346</v>
       </c>
       <c r="C184" s="61" t="s">
@@ -8867,7 +8895,7 @@
       <c r="A185" s="108">
         <v>40973</v>
       </c>
-      <c r="B185" s="61">
+      <c r="B185" s="82">
         <v>1503</v>
       </c>
       <c r="C185" s="61" t="s">
@@ -8908,7 +8936,7 @@
       <c r="A186" s="108">
         <v>40973</v>
       </c>
-      <c r="B186" s="61">
+      <c r="B186" s="82">
         <v>1505</v>
       </c>
       <c r="C186" s="61" t="s">
@@ -8949,7 +8977,7 @@
       <c r="A187" s="108">
         <v>40973</v>
       </c>
-      <c r="B187" s="61">
+      <c r="B187" s="82">
         <v>1506</v>
       </c>
       <c r="C187" s="61" t="s">
@@ -8990,7 +9018,7 @@
       <c r="A188" s="108">
         <v>40973</v>
       </c>
-      <c r="B188" s="61">
+      <c r="B188" s="82">
         <v>1507</v>
       </c>
       <c r="C188" s="61" t="s">
@@ -9031,7 +9059,7 @@
       <c r="A189" s="108">
         <v>40973</v>
       </c>
-      <c r="B189" s="61">
+      <c r="B189" s="82">
         <v>1514</v>
       </c>
       <c r="C189" s="61" t="s">
@@ -9072,7 +9100,7 @@
       <c r="A190" s="108">
         <v>40973</v>
       </c>
-      <c r="B190" s="61">
+      <c r="B190" s="82">
         <v>1515</v>
       </c>
       <c r="C190" s="61" t="s">
@@ -9122,7 +9150,7 @@
       <c r="A191" s="108">
         <v>40973</v>
       </c>
-      <c r="B191" s="61">
+      <c r="B191" s="82">
         <v>1516</v>
       </c>
       <c r="C191" s="61" t="s">
@@ -9169,7 +9197,7 @@
       <c r="A192" s="108">
         <v>40973</v>
       </c>
-      <c r="B192" s="61">
+      <c r="B192" s="82">
         <v>1520</v>
       </c>
       <c r="C192" s="61" t="s">
@@ -9210,7 +9238,7 @@
       <c r="A193" s="108">
         <v>40973</v>
       </c>
-      <c r="B193" s="61">
+      <c r="B193" s="82">
         <v>1520</v>
       </c>
       <c r="C193" s="61" t="s">
@@ -9251,7 +9279,7 @@
       <c r="A194" s="108">
         <v>40973</v>
       </c>
-      <c r="B194" s="61">
+      <c r="B194" s="82">
         <v>1544</v>
       </c>
       <c r="C194" s="61" t="s">
@@ -9292,7 +9320,7 @@
       <c r="A195" s="108">
         <v>40973</v>
       </c>
-      <c r="B195" s="61">
+      <c r="B195" s="82">
         <v>1600</v>
       </c>
       <c r="C195" s="61" t="s">
@@ -9333,7 +9361,7 @@
       <c r="A196" s="108">
         <v>40973</v>
       </c>
-      <c r="B196" s="61">
+      <c r="B196" s="82">
         <v>1605</v>
       </c>
       <c r="C196" s="61" t="s">
@@ -9374,7 +9402,7 @@
       <c r="A197" s="108">
         <v>40973</v>
       </c>
-      <c r="B197" s="61">
+      <c r="B197" s="82">
         <v>1626</v>
       </c>
       <c r="C197" s="61" t="s">
@@ -9415,7 +9443,7 @@
       <c r="A198" s="108">
         <v>40973</v>
       </c>
-      <c r="B198" s="61">
+      <c r="B198" s="82">
         <v>1640</v>
       </c>
       <c r="C198" s="61" t="s">
@@ -9456,7 +9484,7 @@
       <c r="A199" s="108">
         <v>40973</v>
       </c>
-      <c r="B199" s="61">
+      <c r="B199" s="82">
         <v>1649</v>
       </c>
       <c r="C199" s="61" t="s">
@@ -9503,7 +9531,7 @@
       <c r="A200" s="108">
         <v>40973</v>
       </c>
-      <c r="B200" s="61">
+      <c r="B200" s="82">
         <v>1656</v>
       </c>
       <c r="C200" s="61" t="s">
@@ -9544,7 +9572,7 @@
       <c r="A201" s="108">
         <v>40973</v>
       </c>
-      <c r="B201" s="61">
+      <c r="B201" s="82">
         <v>1822</v>
       </c>
       <c r="C201" s="61" t="s">
@@ -9585,7 +9613,7 @@
       <c r="A202" s="108">
         <v>40973</v>
       </c>
-      <c r="B202" s="61">
+      <c r="B202" s="82">
         <v>1840</v>
       </c>
       <c r="C202" s="61" t="s">
@@ -9626,7 +9654,7 @@
       <c r="A203" s="108">
         <v>40973</v>
       </c>
-      <c r="B203" s="61">
+      <c r="B203" s="82">
         <v>1845</v>
       </c>
       <c r="C203" s="61" t="s">
@@ -9667,7 +9695,7 @@
       <c r="A204" s="108">
         <v>40973</v>
       </c>
-      <c r="B204" s="61">
+      <c r="B204" s="82">
         <v>1852</v>
       </c>
       <c r="C204" s="61" t="s">
@@ -9708,7 +9736,7 @@
       <c r="A205" s="108">
         <v>40973</v>
       </c>
-      <c r="B205" s="61">
+      <c r="B205" s="82">
         <v>1854</v>
       </c>
       <c r="C205" s="61" t="s">
@@ -9749,7 +9777,7 @@
       <c r="A206" s="108">
         <v>40973</v>
       </c>
-      <c r="B206" s="61">
+      <c r="B206" s="82">
         <v>1905</v>
       </c>
       <c r="C206" s="61" t="s">
@@ -9790,7 +9818,7 @@
       <c r="A207" s="108">
         <v>40973</v>
       </c>
-      <c r="B207" s="61">
+      <c r="B207" s="82">
         <v>1910</v>
       </c>
       <c r="C207" s="61" t="s">
@@ -9831,7 +9859,7 @@
       <c r="A208" s="108">
         <v>40973</v>
       </c>
-      <c r="B208" s="61">
+      <c r="B208" s="82">
         <v>1917</v>
       </c>
       <c r="C208" s="61" t="s">
@@ -9872,7 +9900,7 @@
       <c r="A209" s="108">
         <v>40974</v>
       </c>
-      <c r="B209" s="61">
+      <c r="B209" s="82">
         <v>1133</v>
       </c>
       <c r="C209" s="61" t="s">
@@ -9913,7 +9941,7 @@
       <c r="A210" s="108">
         <v>40962</v>
       </c>
-      <c r="B210" s="61">
+      <c r="B210" s="82">
         <v>1245</v>
       </c>
       <c r="C210" s="61" t="s">
@@ -9954,7 +9982,7 @@
       <c r="A211" s="108">
         <v>40962</v>
       </c>
-      <c r="B211" s="61">
+      <c r="B211" s="82">
         <v>1253</v>
       </c>
       <c r="C211" s="61" t="s">
@@ -9995,7 +10023,7 @@
       <c r="A212" s="108">
         <v>40966</v>
       </c>
-      <c r="B212" s="61">
+      <c r="B212" s="82">
         <v>1330</v>
       </c>
       <c r="C212" s="61" t="s">
@@ -10034,7 +10062,7 @@
     </row>
     <row r="213" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="109"/>
-      <c r="B213" s="66"/>
+      <c r="B213" s="138"/>
       <c r="C213" s="66"/>
       <c r="D213" s="78"/>
       <c r="E213" s="65"/>
@@ -10060,7 +10088,7 @@
       <c r="A215" s="108">
         <v>41313</v>
       </c>
-      <c r="B215" s="68">
+      <c r="B215" s="82">
         <v>730</v>
       </c>
       <c r="C215" s="69" t="s">
@@ -10102,7 +10130,7 @@
       <c r="A216" s="108">
         <v>41313</v>
       </c>
-      <c r="B216" s="68">
+      <c r="B216" s="82">
         <v>1015</v>
       </c>
       <c r="C216" s="69" t="s">
@@ -10144,7 +10172,7 @@
       <c r="A217" s="108">
         <v>41313</v>
       </c>
-      <c r="B217" s="68">
+      <c r="B217" s="82">
         <v>1055</v>
       </c>
       <c r="C217" s="69" t="s">
@@ -10186,7 +10214,7 @@
       <c r="A218" s="108">
         <v>41313</v>
       </c>
-      <c r="B218" s="68">
+      <c r="B218" s="82">
         <v>1130</v>
       </c>
       <c r="C218" s="69" t="s">
@@ -10234,7 +10262,7 @@
       <c r="A219" s="108">
         <v>41313</v>
       </c>
-      <c r="B219" s="68">
+      <c r="B219" s="82">
         <v>1145</v>
       </c>
       <c r="C219" s="69" t="s">
@@ -10276,7 +10304,7 @@
       <c r="A220" s="108">
         <v>41313</v>
       </c>
-      <c r="B220" s="68">
+      <c r="B220" s="82">
         <v>1155</v>
       </c>
       <c r="C220" s="69" t="s">
@@ -10318,7 +10346,7 @@
       <c r="A221" s="108">
         <v>41332</v>
       </c>
-      <c r="B221" s="68">
+      <c r="B221" s="82">
         <v>1158</v>
       </c>
       <c r="C221" s="69" t="s">
@@ -10358,7 +10386,7 @@
       <c r="A222" s="108">
         <v>41332</v>
       </c>
-      <c r="B222" s="68">
+      <c r="B222" s="82">
         <v>1411</v>
       </c>
       <c r="C222" s="69" t="s">
@@ -10400,7 +10428,7 @@
       <c r="A223" s="108">
         <v>41332</v>
       </c>
-      <c r="B223" s="68">
+      <c r="B223" s="82">
         <v>1903</v>
       </c>
       <c r="C223" s="69" t="s">
@@ -10440,7 +10468,7 @@
       <c r="A224" s="108">
         <v>41337</v>
       </c>
-      <c r="B224" s="68">
+      <c r="B224" s="82">
         <v>1545</v>
       </c>
       <c r="C224" s="69" t="s">
@@ -10482,7 +10510,7 @@
       <c r="A225" s="108">
         <v>41337</v>
       </c>
-      <c r="B225" s="68">
+      <c r="B225" s="82">
         <v>1600</v>
       </c>
       <c r="C225" s="69" t="s">
@@ -10532,7 +10560,7 @@
       <c r="A226" s="108">
         <v>41337</v>
       </c>
-      <c r="B226" s="68">
+      <c r="B226" s="82">
         <v>1625</v>
       </c>
       <c r="C226" s="69" t="s">
@@ -10574,7 +10602,7 @@
       <c r="A227" s="108">
         <v>41338</v>
       </c>
-      <c r="B227" s="68">
+      <c r="B227" s="82">
         <v>922</v>
       </c>
       <c r="C227" s="69" t="s">
@@ -10614,7 +10642,7 @@
       <c r="A228" s="108">
         <v>41338</v>
       </c>
-      <c r="B228" s="68">
+      <c r="B228" s="82">
         <v>1842</v>
       </c>
       <c r="C228" s="69" t="s">
@@ -10658,7 +10686,7 @@
       <c r="A229" s="108">
         <v>41338</v>
       </c>
-      <c r="B229" s="68">
+      <c r="B229" s="82">
         <v>1848</v>
       </c>
       <c r="C229" s="69" t="s">
@@ -10700,7 +10728,7 @@
       <c r="A230" s="108">
         <v>41339</v>
       </c>
-      <c r="B230" s="68">
+      <c r="B230" s="82">
         <v>815</v>
       </c>
       <c r="C230" s="69" t="s">
@@ -10740,7 +10768,7 @@
       <c r="A231" s="108">
         <v>41339</v>
       </c>
-      <c r="B231" s="68">
+      <c r="B231" s="82">
         <v>925</v>
       </c>
       <c r="C231" s="69" t="s">
@@ -10782,7 +10810,7 @@
       <c r="A232" s="108">
         <v>41339</v>
       </c>
-      <c r="B232" s="68">
+      <c r="B232" s="82">
         <v>935</v>
       </c>
       <c r="C232" s="69" t="s">
@@ -10824,7 +10852,7 @@
       <c r="A233" s="108">
         <v>41339</v>
       </c>
-      <c r="B233" s="68">
+      <c r="B233" s="82">
         <v>940</v>
       </c>
       <c r="C233" s="69" t="s">
@@ -10866,7 +10894,7 @@
       <c r="A234" s="108">
         <v>41339</v>
       </c>
-      <c r="B234" s="68">
+      <c r="B234" s="82">
         <v>1000</v>
       </c>
       <c r="C234" s="69" t="s">
@@ -10908,7 +10936,7 @@
       <c r="A235" s="108">
         <v>41339</v>
       </c>
-      <c r="B235" s="68">
+      <c r="B235" s="82">
         <v>1035</v>
       </c>
       <c r="C235" s="69" t="s">
@@ -10950,7 +10978,7 @@
       <c r="A236" s="108">
         <v>41339</v>
       </c>
-      <c r="B236" s="68">
+      <c r="B236" s="82">
         <v>1314</v>
       </c>
       <c r="C236" s="69" t="s">
@@ -10992,7 +11020,7 @@
       <c r="A237" s="108">
         <v>41344</v>
       </c>
-      <c r="B237" s="68">
+      <c r="B237" s="82">
         <v>337</v>
       </c>
       <c r="C237" s="69" t="s">
@@ -11034,7 +11062,7 @@
       <c r="A238" s="108">
         <v>41344</v>
       </c>
-      <c r="B238" s="68">
+      <c r="B238" s="82">
         <v>355</v>
       </c>
       <c r="C238" s="69" t="s">
@@ -11076,7 +11104,7 @@
       <c r="A239" s="108">
         <v>41344</v>
       </c>
-      <c r="B239" s="68">
+      <c r="B239" s="82">
         <v>415</v>
       </c>
       <c r="C239" s="69" t="s">
@@ -11116,7 +11144,7 @@
       <c r="A240" s="108">
         <v>41344</v>
       </c>
-      <c r="B240" s="68">
+      <c r="B240" s="82">
         <v>425</v>
       </c>
       <c r="C240" s="69" t="s">
@@ -11156,7 +11184,7 @@
       <c r="A241" s="108">
         <v>41344</v>
       </c>
-      <c r="B241" s="68">
+      <c r="B241" s="82">
         <v>1515</v>
       </c>
       <c r="C241" s="69" t="s">
@@ -11198,7 +11226,7 @@
       <c r="A242" s="108">
         <v>41052</v>
       </c>
-      <c r="B242" s="68">
+      <c r="B242" s="82">
         <v>1615</v>
       </c>
       <c r="C242" s="69" t="s">
@@ -11240,7 +11268,7 @@
       <c r="A243" s="108">
         <v>41341</v>
       </c>
-      <c r="B243" s="68">
+      <c r="B243" s="82">
         <v>1320</v>
       </c>
       <c r="C243" s="69" t="s">
@@ -11288,7 +11316,7 @@
       <c r="A244" s="108">
         <v>41339</v>
       </c>
-      <c r="B244" s="68">
+      <c r="B244" s="82">
         <v>1030</v>
       </c>
       <c r="C244" s="69" t="s">
@@ -11333,7 +11361,7 @@
       <c r="A245" s="108">
         <v>41339</v>
       </c>
-      <c r="B245" s="68">
+      <c r="B245" s="82">
         <v>1041</v>
       </c>
       <c r="C245" s="69" t="s">
@@ -11378,7 +11406,7 @@
       <c r="A246" s="108">
         <v>41344</v>
       </c>
-      <c r="B246" s="68">
+      <c r="B246" s="82">
         <v>320</v>
       </c>
       <c r="C246" s="69" t="s">
@@ -11423,7 +11451,7 @@
       <c r="A247" s="108">
         <v>41341</v>
       </c>
-      <c r="B247" s="68">
+      <c r="B247" s="82">
         <v>1420</v>
       </c>
       <c r="C247" s="69" t="s">
@@ -11468,7 +11496,7 @@
       <c r="A248" s="108">
         <v>41340</v>
       </c>
-      <c r="B248" s="68">
+      <c r="B248" s="82">
         <v>1715</v>
       </c>
       <c r="C248" s="69" t="s">
@@ -11513,7 +11541,7 @@
       <c r="A249" s="108">
         <v>41340</v>
       </c>
-      <c r="B249" s="68">
+      <c r="B249" s="82">
         <v>1925</v>
       </c>
       <c r="C249" s="69" t="s">
@@ -11558,7 +11586,7 @@
       <c r="A250" s="108">
         <v>41340</v>
       </c>
-      <c r="B250" s="68">
+      <c r="B250" s="82">
         <v>1700</v>
       </c>
       <c r="C250" s="69" t="s">
@@ -11603,7 +11631,7 @@
       <c r="A251" s="108">
         <v>41340</v>
       </c>
-      <c r="B251" s="68">
+      <c r="B251" s="82">
         <v>1914</v>
       </c>
       <c r="C251" s="69" t="s">
@@ -11648,7 +11676,7 @@
       <c r="A252" s="108">
         <v>41340</v>
       </c>
-      <c r="B252" s="68">
+      <c r="B252" s="82">
         <v>1905</v>
       </c>
       <c r="C252" s="69" t="s">
@@ -11693,7 +11721,7 @@
       <c r="A253" s="108">
         <v>41339</v>
       </c>
-      <c r="B253" s="68">
+      <c r="B253" s="82">
         <v>1010</v>
       </c>
       <c r="C253" s="69" t="s">
@@ -11738,7 +11766,7 @@
       <c r="A254" s="108">
         <v>41340</v>
       </c>
-      <c r="B254" s="68">
+      <c r="B254" s="82">
         <v>1455</v>
       </c>
       <c r="C254" s="69" t="s">
@@ -11783,7 +11811,7 @@
       <c r="A255" s="108">
         <v>41339</v>
       </c>
-      <c r="B255" s="68">
+      <c r="B255" s="82">
         <v>1240</v>
       </c>
       <c r="C255" s="69" t="s">
@@ -11828,7 +11856,7 @@
       <c r="A256" s="108">
         <v>41339</v>
       </c>
-      <c r="B256" s="68">
+      <c r="B256" s="82">
         <v>1308</v>
       </c>
       <c r="C256" s="69" t="s">
@@ -11873,7 +11901,7 @@
       <c r="A257" s="108">
         <v>41339</v>
       </c>
-      <c r="B257" s="68">
+      <c r="B257" s="82">
         <v>1658</v>
       </c>
       <c r="C257" s="69" t="s">
@@ -11918,7 +11946,7 @@
       <c r="A258" s="108">
         <v>41354</v>
       </c>
-      <c r="B258" s="68">
+      <c r="B258" s="82">
         <v>1505</v>
       </c>
       <c r="C258" s="69" t="s">
@@ -11963,7 +11991,7 @@
       <c r="A259" s="108">
         <v>41354</v>
       </c>
-      <c r="B259" s="68">
+      <c r="B259" s="82">
         <v>1830</v>
       </c>
       <c r="C259" s="69" t="s">
@@ -12008,7 +12036,7 @@
       <c r="A260" s="108">
         <v>41354</v>
       </c>
-      <c r="B260" s="68">
+      <c r="B260" s="82">
         <v>1407</v>
       </c>
       <c r="C260" s="69" t="s">
@@ -12053,7 +12081,7 @@
       <c r="A261" s="108">
         <v>41355</v>
       </c>
-      <c r="B261" s="68">
+      <c r="B261" s="82">
         <v>1120</v>
       </c>
       <c r="C261" s="69" t="s">
@@ -12098,7 +12126,7 @@
       <c r="A262" s="108">
         <v>41354</v>
       </c>
-      <c r="B262" s="68">
+      <c r="B262" s="82">
         <v>1525</v>
       </c>
       <c r="C262" s="69" t="s">
@@ -12143,7 +12171,7 @@
       <c r="A263" s="108">
         <v>41339</v>
       </c>
-      <c r="B263" s="68">
+      <c r="B263" s="82">
         <v>1600</v>
       </c>
       <c r="C263" s="69" t="s">
@@ -12188,7 +12216,7 @@
       <c r="A264" s="108">
         <v>41340</v>
       </c>
-      <c r="B264" s="68">
+      <c r="B264" s="82">
         <v>1535</v>
       </c>
       <c r="C264" s="69" t="s">
@@ -12233,7 +12261,7 @@
       <c r="A265" s="108">
         <v>41339</v>
       </c>
-      <c r="B265" s="68">
+      <c r="B265" s="82">
         <v>1318</v>
       </c>
       <c r="C265" s="69" t="s">
@@ -12278,7 +12306,7 @@
       <c r="A266" s="108">
         <v>41339</v>
       </c>
-      <c r="B266" s="68">
+      <c r="B266" s="82">
         <v>1126</v>
       </c>
       <c r="C266" s="69" t="s">
@@ -12323,7 +12351,7 @@
       <c r="A267" s="108">
         <v>41340</v>
       </c>
-      <c r="B267" s="68">
+      <c r="B267" s="82">
         <v>1514</v>
       </c>
       <c r="C267" s="69" t="s">
@@ -12368,7 +12396,7 @@
       <c r="A268" s="108">
         <v>41339</v>
       </c>
-      <c r="B268" s="68">
+      <c r="B268" s="82">
         <v>1543</v>
       </c>
       <c r="C268" s="69" t="s">
@@ -12413,7 +12441,7 @@
       <c r="A269" s="108">
         <v>41340</v>
       </c>
-      <c r="B269" s="68">
+      <c r="B269" s="82">
         <v>1535</v>
       </c>
       <c r="C269" s="69" t="s">
@@ -12458,7 +12486,7 @@
       <c r="A270" s="108">
         <v>41339</v>
       </c>
-      <c r="B270" s="68">
+      <c r="B270" s="82">
         <v>1110</v>
       </c>
       <c r="C270" s="69" t="s">
@@ -12503,7 +12531,7 @@
       <c r="A271" s="108">
         <v>41338</v>
       </c>
-      <c r="B271" s="68">
+      <c r="B271" s="82">
         <v>830</v>
       </c>
       <c r="C271" s="69" t="s">
@@ -12548,7 +12576,7 @@
       <c r="A272" s="108">
         <v>41339</v>
       </c>
-      <c r="B272" s="68">
+      <c r="B272" s="82">
         <v>1120</v>
       </c>
       <c r="C272" s="69" t="s">
@@ -12593,7 +12621,7 @@
       <c r="A273" s="108">
         <v>41339</v>
       </c>
-      <c r="B273" s="68">
+      <c r="B273" s="82">
         <v>951</v>
       </c>
       <c r="C273" s="69" t="s">
@@ -12638,7 +12666,7 @@
       <c r="A274" s="108">
         <v>41338</v>
       </c>
-      <c r="B274" s="68">
+      <c r="B274" s="82">
         <v>840</v>
       </c>
       <c r="C274" s="69" t="s">
@@ -12683,7 +12711,7 @@
       <c r="A275" s="108">
         <v>41339</v>
       </c>
-      <c r="B275" s="68">
+      <c r="B275" s="82">
         <v>900</v>
       </c>
       <c r="C275" s="69" t="s">
@@ -12728,7 +12756,7 @@
       <c r="A276" s="108">
         <v>41338</v>
       </c>
-      <c r="B276" s="68">
+      <c r="B276" s="82">
         <v>1856</v>
       </c>
       <c r="C276" s="69" t="s">
@@ -12773,7 +12801,7 @@
       <c r="A277" s="108">
         <v>41339</v>
       </c>
-      <c r="B277" s="68">
+      <c r="B277" s="82">
         <v>1550</v>
       </c>
       <c r="C277" s="69" t="s">
@@ -12818,7 +12846,7 @@
       <c r="A278" s="108">
         <v>41339</v>
       </c>
-      <c r="B278" s="68">
+      <c r="B278" s="82">
         <v>914</v>
       </c>
       <c r="C278" s="69" t="s">
@@ -12863,7 +12891,7 @@
       <c r="A279" s="108">
         <v>41339</v>
       </c>
-      <c r="B279" s="68">
+      <c r="B279" s="82">
         <v>825</v>
       </c>
       <c r="C279" s="69" t="s">
@@ -12908,7 +12936,7 @@
       <c r="A280" s="108">
         <v>41339</v>
       </c>
-      <c r="B280" s="68">
+      <c r="B280" s="82">
         <v>1250</v>
       </c>
       <c r="C280" s="69" t="s">
@@ -12953,7 +12981,7 @@
       <c r="A281" s="108">
         <v>41356</v>
       </c>
-      <c r="B281" s="72">
+      <c r="B281" s="139">
         <v>1313</v>
       </c>
       <c r="C281" s="70" t="s">
@@ -12998,7 +13026,7 @@
       <c r="A282" s="108">
         <v>41356</v>
       </c>
-      <c r="B282" s="72">
+      <c r="B282" s="139">
         <v>1212</v>
       </c>
       <c r="C282" s="70" t="s">
@@ -13043,7 +13071,7 @@
       <c r="A283" s="108">
         <v>41356</v>
       </c>
-      <c r="B283" s="72">
+      <c r="B283" s="139">
         <v>1320</v>
       </c>
       <c r="C283" s="70" t="s">
@@ -13088,7 +13116,7 @@
       <c r="A284" s="108">
         <v>41356</v>
       </c>
-      <c r="B284" s="72">
+      <c r="B284" s="139">
         <v>1150</v>
       </c>
       <c r="C284" s="70" t="s">
@@ -13133,7 +13161,7 @@
       <c r="A285" s="108">
         <v>41356</v>
       </c>
-      <c r="B285" s="72">
+      <c r="B285" s="139">
         <v>1105</v>
       </c>
       <c r="C285" s="70" t="s">
@@ -13178,7 +13206,7 @@
       <c r="A286" s="108">
         <v>41356</v>
       </c>
-      <c r="B286" s="72">
+      <c r="B286" s="139">
         <v>1122</v>
       </c>
       <c r="C286" s="70" t="s">
@@ -13223,7 +13251,7 @@
       <c r="A287" s="108">
         <v>41356</v>
       </c>
-      <c r="B287" s="72">
+      <c r="B287" s="139">
         <v>1045</v>
       </c>
       <c r="C287" s="70" t="s">
@@ -13268,7 +13296,7 @@
       <c r="A288" s="108">
         <v>41356</v>
       </c>
-      <c r="B288" s="72">
+      <c r="B288" s="139">
         <v>1350</v>
       </c>
       <c r="C288" s="70" t="s">
@@ -13313,7 +13341,7 @@
       <c r="A289" s="108">
         <v>41356</v>
       </c>
-      <c r="B289" s="72">
+      <c r="B289" s="139">
         <v>1127</v>
       </c>
       <c r="C289" s="70" t="s">
@@ -13358,7 +13386,7 @@
       <c r="A290" s="108">
         <v>41356</v>
       </c>
-      <c r="B290" s="72">
+      <c r="B290" s="139">
         <v>1130</v>
       </c>
       <c r="C290" s="70" t="s">
@@ -13403,7 +13431,7 @@
       <c r="A291" s="108">
         <v>41356</v>
       </c>
-      <c r="B291" s="72">
+      <c r="B291" s="139">
         <v>1100</v>
       </c>
       <c r="C291" s="70" t="s">
@@ -13448,7 +13476,7 @@
       <c r="A292" s="108">
         <v>41356</v>
       </c>
-      <c r="B292" s="72">
+      <c r="B292" s="139">
         <v>1230</v>
       </c>
       <c r="C292" s="70" t="s">
@@ -13493,7 +13521,7 @@
       <c r="A293" s="108">
         <v>41356</v>
       </c>
-      <c r="B293" s="72">
+      <c r="B293" s="139">
         <v>1138</v>
       </c>
       <c r="C293" s="70" t="s">
@@ -13538,7 +13566,7 @@
       <c r="A294" s="108">
         <v>41356</v>
       </c>
-      <c r="B294" s="72">
+      <c r="B294" s="139">
         <v>1205</v>
       </c>
       <c r="C294" s="70" t="s">
@@ -13583,7 +13611,7 @@
       <c r="A295" s="108">
         <v>41356</v>
       </c>
-      <c r="B295" s="72">
+      <c r="B295" s="139">
         <v>1240</v>
       </c>
       <c r="C295" s="70" t="s">
@@ -13628,7 +13656,7 @@
       <c r="A296" s="108">
         <v>41356</v>
       </c>
-      <c r="B296" s="72">
+      <c r="B296" s="139">
         <v>1300</v>
       </c>
       <c r="C296" s="73" t="s">
@@ -13669,7 +13697,7 @@
       <c r="A297" s="108">
         <v>41359</v>
       </c>
-      <c r="B297" s="72">
+      <c r="B297" s="139">
         <v>1730</v>
       </c>
       <c r="C297" s="70" t="s">
@@ -13717,7 +13745,7 @@
       <c r="A298" s="108">
         <v>41359</v>
       </c>
-      <c r="B298" s="72">
+      <c r="B298" s="139">
         <v>1725</v>
       </c>
       <c r="C298" s="70" t="s">
@@ -13759,7 +13787,7 @@
       <c r="A299" s="108">
         <v>41359</v>
       </c>
-      <c r="B299" s="72">
+      <c r="B299" s="139">
         <v>1715</v>
       </c>
       <c r="C299" s="70" t="s">
@@ -13801,7 +13829,7 @@
       <c r="A300" s="108">
         <v>41359</v>
       </c>
-      <c r="B300" s="72">
+      <c r="B300" s="139">
         <v>1708</v>
       </c>
       <c r="C300" s="70" t="s">
@@ -13843,7 +13871,7 @@
       <c r="A301" s="108">
         <v>41359</v>
       </c>
-      <c r="B301" s="72">
+      <c r="B301" s="139">
         <v>1653</v>
       </c>
       <c r="C301" s="70" t="s">
@@ -13885,7 +13913,7 @@
       <c r="A302" s="108">
         <v>41359</v>
       </c>
-      <c r="B302" s="72">
+      <c r="B302" s="139">
         <v>1642</v>
       </c>
       <c r="C302" s="70" t="s">
@@ -13927,7 +13955,7 @@
       <c r="A303" s="108">
         <v>41359</v>
       </c>
-      <c r="B303" s="72">
+      <c r="B303" s="139">
         <v>1630</v>
       </c>
       <c r="C303" s="70" t="s">
@@ -13969,7 +13997,7 @@
       <c r="A304" s="108">
         <v>41359</v>
       </c>
-      <c r="B304" s="72">
+      <c r="B304" s="139">
         <v>1625</v>
       </c>
       <c r="C304" s="70" t="s">
@@ -14011,7 +14039,7 @@
       <c r="A305" s="108">
         <v>41359</v>
       </c>
-      <c r="B305" s="72">
+      <c r="B305" s="139">
         <v>1617</v>
       </c>
       <c r="C305" s="70" t="s">
@@ -14053,7 +14081,7 @@
       <c r="A306" s="110">
         <v>41359</v>
       </c>
-      <c r="B306" s="72">
+      <c r="B306" s="139">
         <v>1555</v>
       </c>
       <c r="C306" s="73" t="s">
@@ -14071,7 +14099,7 @@
       <c r="A307" s="108">
         <v>41379</v>
       </c>
-      <c r="B307" s="72">
+      <c r="B307" s="139">
         <v>1615</v>
       </c>
       <c r="C307" s="70" t="s">
@@ -14115,7 +14143,7 @@
       <c r="A308" s="108">
         <v>41379</v>
       </c>
-      <c r="B308" s="72">
+      <c r="B308" s="139">
         <v>1645</v>
       </c>
       <c r="C308" s="70" t="s">
@@ -14153,7 +14181,7 @@
       <c r="A309" s="108">
         <v>41379</v>
       </c>
-      <c r="B309" s="72">
+      <c r="B309" s="139">
         <v>1655</v>
       </c>
       <c r="C309" s="70" t="s">
@@ -14191,7 +14219,7 @@
       <c r="A310" s="108">
         <v>41380</v>
       </c>
-      <c r="B310" s="72">
+      <c r="B310" s="139">
         <v>935</v>
       </c>
       <c r="C310" s="70" t="s">
@@ -14229,7 +14257,7 @@
       <c r="A311" s="108">
         <v>41380</v>
       </c>
-      <c r="B311" s="72">
+      <c r="B311" s="139">
         <v>950</v>
       </c>
       <c r="C311" s="70" t="s">
@@ -14267,7 +14295,7 @@
       <c r="A312" s="108">
         <v>41380</v>
       </c>
-      <c r="B312" s="72">
+      <c r="B312" s="139">
         <v>955</v>
       </c>
       <c r="C312" s="70" t="s">
@@ -14305,7 +14333,7 @@
       <c r="A313" s="108">
         <v>41380</v>
       </c>
-      <c r="B313" s="72">
+      <c r="B313" s="139">
         <v>1005</v>
       </c>
       <c r="C313" s="70" t="s">
@@ -14343,7 +14371,7 @@
       <c r="A314" s="108">
         <v>41380</v>
       </c>
-      <c r="B314" s="72">
+      <c r="B314" s="139">
         <v>1010</v>
       </c>
       <c r="C314" s="70" t="s">
@@ -14381,7 +14409,7 @@
       <c r="A315" s="108">
         <v>41380</v>
       </c>
-      <c r="B315" s="72">
+      <c r="B315" s="139">
         <v>1335</v>
       </c>
       <c r="C315" s="70" t="s">
@@ -14422,7 +14450,7 @@
       <c r="A316" s="108">
         <v>41380</v>
       </c>
-      <c r="B316" s="72">
+      <c r="B316" s="139">
         <v>1342</v>
       </c>
       <c r="C316" s="70" t="s">
@@ -14463,7 +14491,7 @@
       <c r="A317" s="108">
         <v>41380</v>
       </c>
-      <c r="B317" s="72">
+      <c r="B317" s="139">
         <v>1347</v>
       </c>
       <c r="C317" s="70" t="s">
@@ -14504,7 +14532,7 @@
       <c r="A318" s="108">
         <v>41380</v>
       </c>
-      <c r="B318" s="72">
+      <c r="B318" s="139">
         <v>1356</v>
       </c>
       <c r="C318" s="70" t="s">
@@ -14545,7 +14573,7 @@
       <c r="A319" s="108">
         <v>41380</v>
       </c>
-      <c r="B319" s="72">
+      <c r="B319" s="139">
         <v>1450</v>
       </c>
       <c r="C319" s="70" t="s">
@@ -14583,7 +14611,7 @@
       <c r="A320" s="108">
         <v>41380</v>
       </c>
-      <c r="B320" s="72">
+      <c r="B320" s="139">
         <v>1505</v>
       </c>
       <c r="C320" s="70" t="s">
@@ -14621,7 +14649,7 @@
       <c r="A321" s="108">
         <v>41380</v>
       </c>
-      <c r="B321" s="72">
+      <c r="B321" s="139">
         <v>1510</v>
       </c>
       <c r="C321" s="70" t="s">
@@ -14662,7 +14690,7 @@
       <c r="A322" s="108">
         <v>41380</v>
       </c>
-      <c r="B322" s="72">
+      <c r="B322" s="139">
         <v>1735</v>
       </c>
       <c r="C322" s="70" t="s">
@@ -14700,7 +14728,7 @@
       <c r="A323" s="108">
         <v>41380</v>
       </c>
-      <c r="B323" s="72">
+      <c r="B323" s="139">
         <v>1740</v>
       </c>
       <c r="C323" s="70" t="s">
@@ -14738,7 +14766,7 @@
       <c r="A324" s="108">
         <v>41380</v>
       </c>
-      <c r="B324" s="72">
+      <c r="B324" s="139">
         <v>1750</v>
       </c>
       <c r="C324" s="70" t="s">
@@ -14776,7 +14804,7 @@
       <c r="A325" s="108">
         <v>41381</v>
       </c>
-      <c r="B325" s="72">
+      <c r="B325" s="139">
         <v>615</v>
       </c>
       <c r="C325" s="70" t="s">
@@ -14814,7 +14842,7 @@
       <c r="A326" s="108">
         <v>41381</v>
       </c>
-      <c r="B326" s="72">
+      <c r="B326" s="139">
         <v>630</v>
       </c>
       <c r="C326" s="70" t="s">
@@ -14852,7 +14880,7 @@
       <c r="A327" s="108">
         <v>41381</v>
       </c>
-      <c r="B327" s="72">
+      <c r="B327" s="139">
         <v>655</v>
       </c>
       <c r="C327" s="70" t="s">
@@ -14890,7 +14918,7 @@
       <c r="A328" s="108">
         <v>41381</v>
       </c>
-      <c r="B328" s="72">
+      <c r="B328" s="139">
         <v>705</v>
       </c>
       <c r="C328" s="70" t="s">
@@ -14928,7 +14956,7 @@
       <c r="A329" s="108">
         <v>41381</v>
       </c>
-      <c r="B329" s="72">
+      <c r="B329" s="139">
         <v>715</v>
       </c>
       <c r="C329" s="70" t="s">
@@ -14966,7 +14994,7 @@
       <c r="A330" s="108">
         <v>41381</v>
       </c>
-      <c r="B330" s="72">
+      <c r="B330" s="139">
         <v>1820</v>
       </c>
       <c r="C330" s="70" t="s">
@@ -15004,7 +15032,7 @@
       <c r="A331" s="108">
         <v>41382</v>
       </c>
-      <c r="B331" s="72">
+      <c r="B331" s="139">
         <v>1525</v>
       </c>
       <c r="C331" s="70" t="s">
@@ -15042,7 +15070,7 @@
       <c r="A332" s="108">
         <v>41382</v>
       </c>
-      <c r="B332" s="72">
+      <c r="B332" s="139">
         <v>1540</v>
       </c>
       <c r="C332" s="70" t="s">
@@ -15080,7 +15108,7 @@
       <c r="A333" s="108">
         <v>41382</v>
       </c>
-      <c r="B333" s="72">
+      <c r="B333" s="139">
         <v>1545</v>
       </c>
       <c r="C333" s="70" t="s">
@@ -15118,7 +15146,7 @@
       <c r="A334" s="108">
         <v>41382</v>
       </c>
-      <c r="B334" s="72">
+      <c r="B334" s="139">
         <v>1555</v>
       </c>
       <c r="C334" s="70" t="s">
@@ -15156,7 +15184,7 @@
       <c r="A335" s="108">
         <v>41387</v>
       </c>
-      <c r="B335" s="72">
+      <c r="B335" s="139">
         <v>1650</v>
       </c>
       <c r="C335" s="70" t="s">
@@ -15197,7 +15225,7 @@
       <c r="A336" s="108">
         <v>41387</v>
       </c>
-      <c r="B336" s="72">
+      <c r="B336" s="139">
         <v>1405</v>
       </c>
       <c r="C336" s="70" t="s">
@@ -15235,7 +15263,7 @@
       <c r="A337" s="108">
         <v>41387</v>
       </c>
-      <c r="B337" s="72">
+      <c r="B337" s="139">
         <v>1410</v>
       </c>
       <c r="C337" s="70" t="s">
@@ -15276,7 +15304,7 @@
       <c r="A338" s="108">
         <v>41387</v>
       </c>
-      <c r="B338" s="72">
+      <c r="B338" s="139">
         <v>1415</v>
       </c>
       <c r="C338" s="70" t="s">
@@ -15314,7 +15342,7 @@
       <c r="A339" s="108">
         <v>41387</v>
       </c>
-      <c r="B339" s="72">
+      <c r="B339" s="139">
         <v>1425</v>
       </c>
       <c r="C339" s="70" t="s">
@@ -15352,7 +15380,7 @@
       <c r="A340" s="108">
         <v>41387</v>
       </c>
-      <c r="B340" s="72">
+      <c r="B340" s="139">
         <v>1430</v>
       </c>
       <c r="C340" s="70" t="s">
@@ -15393,7 +15421,7 @@
       <c r="A341" s="108">
         <v>41387</v>
       </c>
-      <c r="B341" s="72">
+      <c r="B341" s="139">
         <v>1445</v>
       </c>
       <c r="C341" s="70" t="s">
@@ -15434,7 +15462,7 @@
       <c r="A342" s="108">
         <v>41387</v>
       </c>
-      <c r="B342" s="72">
+      <c r="B342" s="139">
         <v>1450</v>
       </c>
       <c r="C342" s="70" t="s">
@@ -15475,7 +15503,7 @@
       <c r="A343" s="108">
         <v>41387</v>
       </c>
-      <c r="B343" s="72">
+      <c r="B343" s="139">
         <v>1455</v>
       </c>
       <c r="C343" s="70" t="s">
@@ -15516,7 +15544,7 @@
       <c r="A344" s="108">
         <v>41387</v>
       </c>
-      <c r="B344" s="72">
+      <c r="B344" s="139">
         <v>1500</v>
       </c>
       <c r="C344" s="70" t="s">
@@ -15557,7 +15585,7 @@
       <c r="A345" s="108">
         <v>41387</v>
       </c>
-      <c r="B345" s="72">
+      <c r="B345" s="139">
         <v>1515</v>
       </c>
       <c r="C345" s="70" t="s">
@@ -15598,7 +15626,7 @@
       <c r="A346" s="108">
         <v>41387</v>
       </c>
-      <c r="B346" s="72">
+      <c r="B346" s="139">
         <v>1525</v>
       </c>
       <c r="C346" s="70" t="s">
@@ -15639,7 +15667,7 @@
       <c r="A347" s="108">
         <v>41387</v>
       </c>
-      <c r="B347" s="72">
+      <c r="B347" s="139">
         <v>1530</v>
       </c>
       <c r="C347" s="70" t="s">
@@ -15680,7 +15708,7 @@
       <c r="A348" s="108">
         <v>41387</v>
       </c>
-      <c r="B348" s="72">
+      <c r="B348" s="139">
         <v>1540</v>
       </c>
       <c r="C348" s="70" t="s">
@@ -15721,7 +15749,7 @@
       <c r="A349" s="108">
         <v>41387</v>
       </c>
-      <c r="B349" s="72">
+      <c r="B349" s="139">
         <v>1550</v>
       </c>
       <c r="C349" s="70" t="s">
@@ -15759,7 +15787,7 @@
       <c r="A350" s="108">
         <v>41387</v>
       </c>
-      <c r="B350" s="72">
+      <c r="B350" s="139">
         <v>1600</v>
       </c>
       <c r="C350" s="70" t="s">
@@ -15797,7 +15825,7 @@
       <c r="A351" s="108">
         <v>41387</v>
       </c>
-      <c r="B351" s="72">
+      <c r="B351" s="139">
         <v>1605</v>
       </c>
       <c r="C351" s="70" t="s">
@@ -15835,7 +15863,7 @@
       <c r="A352" s="108">
         <v>41387</v>
       </c>
-      <c r="B352" s="72">
+      <c r="B352" s="139">
         <v>1620</v>
       </c>
       <c r="C352" s="70" t="s">
@@ -15873,7 +15901,7 @@
       <c r="A353" s="108">
         <v>41387</v>
       </c>
-      <c r="B353" s="72">
+      <c r="B353" s="139">
         <v>1625</v>
       </c>
       <c r="C353" s="70" t="s">
@@ -15914,7 +15942,7 @@
       <c r="A354" s="108">
         <v>41387</v>
       </c>
-      <c r="B354" s="72">
+      <c r="B354" s="139">
         <v>1720</v>
       </c>
       <c r="C354" s="70" t="s">
@@ -15952,7 +15980,7 @@
       <c r="A355" s="108">
         <v>41387</v>
       </c>
-      <c r="B355" s="72">
+      <c r="B355" s="139">
         <v>1735</v>
       </c>
       <c r="C355" s="70" t="s">
@@ -15990,7 +16018,7 @@
       <c r="A356" s="108">
         <v>41387</v>
       </c>
-      <c r="B356" s="72">
+      <c r="B356" s="139">
         <v>1740</v>
       </c>
       <c r="C356" s="70" t="s">
@@ -16028,7 +16056,7 @@
       <c r="A357" s="108">
         <v>41387</v>
       </c>
-      <c r="B357" s="72">
+      <c r="B357" s="139">
         <v>1800</v>
       </c>
       <c r="C357" s="70" t="s">
@@ -16066,7 +16094,7 @@
       <c r="A358" s="108">
         <v>41387</v>
       </c>
-      <c r="B358" s="72">
+      <c r="B358" s="139">
         <v>1825</v>
       </c>
       <c r="C358" s="70" t="s">
@@ -16104,7 +16132,7 @@
       <c r="A359" s="108">
         <v>41394</v>
       </c>
-      <c r="B359" s="72">
+      <c r="B359" s="139">
         <v>1532</v>
       </c>
       <c r="C359" s="70" t="s">
@@ -16142,7 +16170,7 @@
       <c r="A360" s="108">
         <v>41394</v>
       </c>
-      <c r="B360" s="72">
+      <c r="B360" s="139">
         <v>1542</v>
       </c>
       <c r="C360" s="70" t="s">
@@ -16183,7 +16211,7 @@
       <c r="A361" s="108">
         <v>41394</v>
       </c>
-      <c r="B361" s="72">
+      <c r="B361" s="139">
         <v>1552</v>
       </c>
       <c r="C361" s="70" t="s">
@@ -16224,7 +16252,7 @@
       <c r="A362" s="108">
         <v>41394</v>
       </c>
-      <c r="B362" s="72">
+      <c r="B362" s="139">
         <v>1605</v>
       </c>
       <c r="C362" s="70" t="s">
@@ -16262,7 +16290,7 @@
       <c r="A363" s="108">
         <v>41394</v>
       </c>
-      <c r="B363" s="72">
+      <c r="B363" s="139">
         <v>1616</v>
       </c>
       <c r="C363" s="70" t="s">
@@ -16300,7 +16328,7 @@
       <c r="A364" s="108">
         <v>41394</v>
       </c>
-      <c r="B364" s="72">
+      <c r="B364" s="139">
         <v>1622</v>
       </c>
       <c r="C364" s="70" t="s">
@@ -16338,7 +16366,7 @@
       <c r="A365" s="108">
         <v>41394</v>
       </c>
-      <c r="B365" s="72">
+      <c r="B365" s="139">
         <v>1645</v>
       </c>
       <c r="C365" s="70" t="s">
@@ -16376,7 +16404,7 @@
       <c r="A366" s="108">
         <v>41394</v>
       </c>
-      <c r="B366" s="72">
+      <c r="B366" s="139">
         <v>1735</v>
       </c>
       <c r="C366" s="70" t="s">
@@ -16414,7 +16442,7 @@
       <c r="A367" s="108">
         <v>41394</v>
       </c>
-      <c r="B367" s="72">
+      <c r="B367" s="139">
         <v>1745</v>
       </c>
       <c r="C367" s="70" t="s">
@@ -16452,7 +16480,7 @@
       <c r="A368" s="108">
         <v>41394</v>
       </c>
-      <c r="B368" s="72">
+      <c r="B368" s="139">
         <v>1755</v>
       </c>
       <c r="C368" s="70" t="s">
@@ -16490,7 +16518,7 @@
       <c r="A369" s="108">
         <v>41394</v>
       </c>
-      <c r="B369" s="72">
+      <c r="B369" s="139">
         <v>2315</v>
       </c>
       <c r="C369" s="70" t="s">
@@ -16531,7 +16559,7 @@
       <c r="A370" s="108">
         <v>41395</v>
       </c>
-      <c r="B370" s="72">
+      <c r="B370" s="139">
         <v>855</v>
       </c>
       <c r="C370" s="70" t="s">
@@ -16569,7 +16597,7 @@
       <c r="A371" s="108">
         <v>41395</v>
       </c>
-      <c r="B371" s="72">
+      <c r="B371" s="139">
         <v>900</v>
       </c>
       <c r="C371" s="70" t="s">
@@ -16607,7 +16635,7 @@
       <c r="A372" s="110">
         <v>41395</v>
       </c>
-      <c r="B372" s="72">
+      <c r="B372" s="139">
         <v>910</v>
       </c>
       <c r="C372" s="73" t="s">
@@ -16649,7 +16677,7 @@
       <c r="A373" s="108">
         <v>41424</v>
       </c>
-      <c r="B373" s="72">
+      <c r="B373" s="139">
         <v>1320</v>
       </c>
       <c r="C373" s="70" t="s">
@@ -16693,7 +16721,7 @@
       <c r="A374" s="108">
         <v>41424</v>
       </c>
-      <c r="B374" s="72">
+      <c r="B374" s="139">
         <v>1330</v>
       </c>
       <c r="C374" s="70" t="s">
@@ -16711,7 +16739,7 @@
       <c r="A375" s="108">
         <v>41424</v>
       </c>
-      <c r="B375" s="72">
+      <c r="B375" s="139">
         <v>1340</v>
       </c>
       <c r="C375" s="70" t="s">
@@ -16728,7 +16756,7 @@
       <c r="A376" s="108">
         <v>41430</v>
       </c>
-      <c r="B376" s="72">
+      <c r="B376" s="139">
         <v>1000</v>
       </c>
       <c r="C376" s="70" t="s">
@@ -16766,7 +16794,7 @@
       <c r="A377" s="108">
         <v>41430</v>
       </c>
-      <c r="B377" s="72">
+      <c r="B377" s="139">
         <v>1015</v>
       </c>
       <c r="C377" s="70" t="s">
@@ -16804,7 +16832,7 @@
       <c r="A378" s="108">
         <v>41430</v>
       </c>
-      <c r="B378" s="72">
+      <c r="B378" s="139">
         <v>1025</v>
       </c>
       <c r="C378" s="70" t="s">
@@ -16842,7 +16870,7 @@
       <c r="A379" s="108">
         <v>41430</v>
       </c>
-      <c r="B379" s="72">
+      <c r="B379" s="139">
         <v>1110</v>
       </c>
       <c r="C379" s="70" t="s">
@@ -16880,7 +16908,7 @@
       <c r="A380" s="108">
         <v>41430</v>
       </c>
-      <c r="B380" s="72">
+      <c r="B380" s="139">
         <v>1120</v>
       </c>
       <c r="C380" s="70" t="s">
@@ -16918,7 +16946,7 @@
       <c r="A381" s="108">
         <v>41430</v>
       </c>
-      <c r="B381" s="72">
+      <c r="B381" s="139">
         <v>1125</v>
       </c>
       <c r="C381" s="70" t="s">
@@ -16956,7 +16984,7 @@
       <c r="A382" s="108">
         <v>41430</v>
       </c>
-      <c r="B382" s="72">
+      <c r="B382" s="139">
         <v>1145</v>
       </c>
       <c r="C382" s="70" t="s">
@@ -16994,7 +17022,7 @@
       <c r="A383" s="108">
         <v>41430</v>
       </c>
-      <c r="B383" s="72">
+      <c r="B383" s="139">
         <v>1200</v>
       </c>
       <c r="C383" s="70" t="s">
@@ -17032,7 +17060,7 @@
       <c r="A384" s="108">
         <v>41430</v>
       </c>
-      <c r="B384" s="72">
+      <c r="B384" s="139">
         <v>1315</v>
       </c>
       <c r="C384" s="70" t="s">
@@ -17070,7 +17098,7 @@
       <c r="A385" s="108">
         <v>41430</v>
       </c>
-      <c r="B385" s="72">
+      <c r="B385" s="139">
         <v>1320</v>
       </c>
       <c r="C385" s="70" t="s">
@@ -17108,7 +17136,7 @@
       <c r="A386" s="108">
         <v>41430</v>
       </c>
-      <c r="B386" s="72">
+      <c r="B386" s="139">
         <v>1325</v>
       </c>
       <c r="C386" s="70" t="s">
@@ -17146,7 +17174,7 @@
       <c r="A387" s="108">
         <v>41430</v>
       </c>
-      <c r="B387" s="72">
+      <c r="B387" s="139">
         <v>1405</v>
       </c>
       <c r="C387" s="70" t="s">
@@ -17184,7 +17212,7 @@
       <c r="A388" s="108">
         <v>41430</v>
       </c>
-      <c r="B388" s="72">
+      <c r="B388" s="139">
         <v>1420</v>
       </c>
       <c r="C388" s="70" t="s">
@@ -17222,7 +17250,7 @@
       <c r="A389" s="108">
         <v>41430</v>
       </c>
-      <c r="B389" s="72">
+      <c r="B389" s="139">
         <v>1455</v>
       </c>
       <c r="C389" s="70" t="s">
@@ -17260,7 +17288,7 @@
       <c r="A390" s="108">
         <v>41430</v>
       </c>
-      <c r="B390" s="72">
+      <c r="B390" s="139">
         <v>1505</v>
       </c>
       <c r="C390" s="70" t="s">
@@ -17298,7 +17326,7 @@
       <c r="A391" s="108">
         <v>41430</v>
       </c>
-      <c r="B391" s="72">
+      <c r="B391" s="139">
         <v>1520</v>
       </c>
       <c r="C391" s="70" t="s">
@@ -17336,7 +17364,7 @@
       <c r="A392" s="108">
         <v>41430</v>
       </c>
-      <c r="B392" s="72">
+      <c r="B392" s="139">
         <v>1535</v>
       </c>
       <c r="C392" s="70" t="s">
@@ -17374,7 +17402,7 @@
       <c r="A393" s="108">
         <v>41430</v>
       </c>
-      <c r="B393" s="72">
+      <c r="B393" s="139">
         <v>1630</v>
       </c>
       <c r="C393" s="70" t="s">
@@ -17418,7 +17446,7 @@
       <c r="A394" s="108">
         <v>41430</v>
       </c>
-      <c r="B394" s="72">
+      <c r="B394" s="139">
         <v>1645</v>
       </c>
       <c r="C394" s="70" t="s">
@@ -17456,7 +17484,7 @@
       <c r="A395" s="108">
         <v>41430</v>
       </c>
-      <c r="B395" s="72">
+      <c r="B395" s="139">
         <v>1705</v>
       </c>
       <c r="C395" s="70" t="s">
@@ -17494,7 +17522,7 @@
       <c r="A396" s="108">
         <v>41430</v>
       </c>
-      <c r="B396" s="72">
+      <c r="B396" s="139">
         <v>1720</v>
       </c>
       <c r="C396" s="70" t="s">
@@ -17532,7 +17560,7 @@
       <c r="A397" s="108">
         <v>41430</v>
       </c>
-      <c r="B397" s="72">
+      <c r="B397" s="139">
         <v>1730</v>
       </c>
       <c r="C397" s="70" t="s">
@@ -17570,7 +17598,7 @@
       <c r="A398" s="108">
         <v>41449</v>
       </c>
-      <c r="B398" s="72">
+      <c r="B398" s="139">
         <v>910</v>
       </c>
       <c r="C398" s="70" t="s">
@@ -17608,7 +17636,7 @@
       <c r="A399" s="108">
         <v>41449</v>
       </c>
-      <c r="B399" s="72">
+      <c r="B399" s="139">
         <v>910</v>
       </c>
       <c r="C399" s="70" t="s">
@@ -17646,7 +17674,7 @@
       <c r="A400" s="108">
         <v>41449</v>
       </c>
-      <c r="B400" s="72">
+      <c r="B400" s="139">
         <v>925</v>
       </c>
       <c r="C400" s="70" t="s">
@@ -17684,7 +17712,7 @@
       <c r="A401" s="108">
         <v>41449</v>
       </c>
-      <c r="B401" s="72">
+      <c r="B401" s="139">
         <v>945</v>
       </c>
       <c r="C401" s="70" t="s">
@@ -17722,7 +17750,7 @@
       <c r="A402" s="108">
         <v>41449</v>
       </c>
-      <c r="B402" s="72">
+      <c r="B402" s="139">
         <v>955</v>
       </c>
       <c r="C402" s="70" t="s">
@@ -17760,7 +17788,7 @@
       <c r="A403" s="108">
         <v>41450</v>
       </c>
-      <c r="B403" s="72">
+      <c r="B403" s="139">
         <v>1030</v>
       </c>
       <c r="C403" s="70" t="s">
@@ -17798,7 +17826,7 @@
       <c r="A404" s="108">
         <v>41450</v>
       </c>
-      <c r="B404" s="72">
+      <c r="B404" s="139">
         <v>1200</v>
       </c>
       <c r="C404" s="70" t="s">
@@ -17836,7 +17864,7 @@
       <c r="A405" s="111">
         <v>41450</v>
       </c>
-      <c r="B405" s="84">
+      <c r="B405" s="140">
         <v>1210</v>
       </c>
       <c r="C405" s="85" t="s">
@@ -17880,7 +17908,7 @@
       <c r="A406" s="112">
         <v>41690</v>
       </c>
-      <c r="B406" s="90">
+      <c r="B406" s="141">
         <v>1218</v>
       </c>
       <c r="C406" s="91" t="s">
@@ -17924,7 +17952,7 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="113"/>
-      <c r="B407" s="72"/>
+      <c r="B407" s="139"/>
       <c r="C407" s="70"/>
       <c r="D407" s="72"/>
       <c r="H407" s="70">
@@ -17943,7 +17971,7 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="113"/>
-      <c r="B408" s="72"/>
+      <c r="B408" s="139"/>
       <c r="C408" s="70"/>
       <c r="D408" s="72"/>
       <c r="H408" s="70">
@@ -17962,7 +17990,7 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="113"/>
-      <c r="B409" s="72"/>
+      <c r="B409" s="139"/>
       <c r="C409" s="70"/>
       <c r="D409" s="72"/>
       <c r="H409" s="70">
@@ -17981,7 +18009,7 @@
     </row>
     <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="113"/>
-      <c r="B410" s="72"/>
+      <c r="B410" s="139"/>
       <c r="C410" s="70"/>
       <c r="D410" s="72"/>
       <c r="H410" s="70">
@@ -17998,7 +18026,7 @@
     </row>
     <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="113"/>
-      <c r="B411" s="72"/>
+      <c r="B411" s="139"/>
       <c r="C411" s="70"/>
       <c r="D411" s="72"/>
       <c r="H411" s="70">
@@ -18015,7 +18043,7 @@
     </row>
     <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="113"/>
-      <c r="B412" s="72"/>
+      <c r="B412" s="139"/>
       <c r="C412" s="70"/>
       <c r="D412" s="72"/>
       <c r="H412" s="70">
@@ -18034,7 +18062,7 @@
       <c r="A413" s="113">
         <v>41684</v>
       </c>
-      <c r="B413" s="72">
+      <c r="B413" s="139">
         <v>1817</v>
       </c>
       <c r="C413" s="70" t="s">
@@ -18069,7 +18097,7 @@
       <c r="A414" s="113">
         <v>41690</v>
       </c>
-      <c r="B414" s="72">
+      <c r="B414" s="139">
         <v>1318</v>
       </c>
       <c r="C414" s="70" t="s">
@@ -18102,7 +18130,7 @@
     </row>
     <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="113"/>
-      <c r="B415" s="72"/>
+      <c r="B415" s="139"/>
       <c r="C415" s="70"/>
       <c r="D415" s="72"/>
       <c r="H415" s="70">
@@ -18121,7 +18149,7 @@
       <c r="A416" s="113">
         <v>41684</v>
       </c>
-      <c r="B416" s="72">
+      <c r="B416" s="139">
         <v>1747</v>
       </c>
       <c r="C416" s="70" t="s">
@@ -18156,7 +18184,7 @@
       <c r="A417" s="113">
         <v>41690</v>
       </c>
-      <c r="B417" s="72">
+      <c r="B417" s="139">
         <v>1148</v>
       </c>
       <c r="C417" s="70" t="s">
@@ -18189,7 +18217,7 @@
     </row>
     <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="113"/>
-      <c r="B418" s="72"/>
+      <c r="B418" s="139"/>
       <c r="C418" s="70"/>
       <c r="D418" s="72"/>
       <c r="H418" s="70">
@@ -18206,7 +18234,7 @@
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="113"/>
-      <c r="B419" s="72"/>
+      <c r="B419" s="139"/>
       <c r="C419" s="70"/>
       <c r="D419" s="72"/>
       <c r="H419" s="70">
@@ -18223,7 +18251,7 @@
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="113"/>
-      <c r="B420" s="72"/>
+      <c r="B420" s="139"/>
       <c r="C420" s="70"/>
       <c r="D420" s="72"/>
       <c r="H420" s="70">
@@ -18242,7 +18270,7 @@
       <c r="A421" s="113">
         <v>41684</v>
       </c>
-      <c r="B421" s="72">
+      <c r="B421" s="139">
         <v>1647</v>
       </c>
       <c r="C421" s="70" t="s">
@@ -18277,7 +18305,7 @@
       <c r="A422" s="113">
         <v>41684</v>
       </c>
-      <c r="B422" s="72">
+      <c r="B422" s="139">
         <v>1617</v>
       </c>
       <c r="C422" s="70" t="s">
@@ -18312,7 +18340,7 @@
       <c r="A423" s="113">
         <v>41684</v>
       </c>
-      <c r="B423" s="72">
+      <c r="B423" s="139">
         <v>1717</v>
       </c>
       <c r="C423" s="70" t="s">
@@ -18347,7 +18375,7 @@
       <c r="A424" s="113">
         <v>41684</v>
       </c>
-      <c r="B424" s="72">
+      <c r="B424" s="139">
         <v>1517</v>
       </c>
       <c r="C424" s="70" t="s">
@@ -18382,7 +18410,7 @@
       <c r="A425" s="113">
         <v>41679</v>
       </c>
-      <c r="B425" s="72">
+      <c r="B425" s="139">
         <v>1021</v>
       </c>
       <c r="C425" s="70" t="s">
@@ -18417,7 +18445,7 @@
       <c r="A426" s="113">
         <v>41684</v>
       </c>
-      <c r="B426" s="72">
+      <c r="B426" s="139">
         <v>1547</v>
       </c>
       <c r="C426" s="70" t="s">
@@ -18450,7 +18478,7 @@
     </row>
     <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="113"/>
-      <c r="B427" s="72"/>
+      <c r="B427" s="139"/>
       <c r="C427" s="70"/>
       <c r="D427" s="72"/>
       <c r="H427" s="70">
@@ -18469,7 +18497,7 @@
       <c r="A428" s="113">
         <v>41679</v>
       </c>
-      <c r="B428" s="72">
+      <c r="B428" s="139">
         <v>1020</v>
       </c>
       <c r="C428" s="70" t="s">
@@ -18504,7 +18532,7 @@
       <c r="A429" s="113">
         <v>41691</v>
       </c>
-      <c r="B429" s="72">
+      <c r="B429" s="139">
         <v>1230</v>
       </c>
       <c r="C429" s="70" t="s">
@@ -18539,7 +18567,7 @@
       <c r="A430" s="113">
         <v>41691</v>
       </c>
-      <c r="B430" s="72">
+      <c r="B430" s="139">
         <v>1215</v>
       </c>
       <c r="C430" s="70" t="s">
@@ -18574,7 +18602,7 @@
       <c r="A431" s="113">
         <v>41691</v>
       </c>
-      <c r="B431" s="72">
+      <c r="B431" s="139">
         <v>1200</v>
       </c>
       <c r="C431" s="70" t="s">
@@ -18609,7 +18637,7 @@
       <c r="A432" s="113">
         <v>41691</v>
       </c>
-      <c r="B432" s="72">
+      <c r="B432" s="139">
         <v>1415</v>
       </c>
       <c r="C432" s="70" t="s">
@@ -18644,7 +18672,7 @@
       <c r="A433" s="113">
         <v>41691</v>
       </c>
-      <c r="B433" s="72">
+      <c r="B433" s="139">
         <v>1445</v>
       </c>
       <c r="C433" s="70" t="s">
@@ -18679,7 +18707,7 @@
       <c r="A434" s="113">
         <v>41691</v>
       </c>
-      <c r="B434" s="72">
+      <c r="B434" s="139">
         <v>1245</v>
       </c>
       <c r="C434" s="70" t="s">
@@ -18714,7 +18742,7 @@
       <c r="A435" s="113">
         <v>41688</v>
       </c>
-      <c r="B435" s="72">
+      <c r="B435" s="139">
         <v>1815</v>
       </c>
       <c r="C435" s="70" t="s">
@@ -18749,7 +18777,7 @@
       <c r="A436" s="114">
         <v>41688</v>
       </c>
-      <c r="B436" s="98">
+      <c r="B436" s="142">
         <v>1830</v>
       </c>
       <c r="C436" s="99" t="s">
@@ -18791,7 +18819,7 @@
       <c r="A437" s="113">
         <v>41691</v>
       </c>
-      <c r="B437" s="72">
+      <c r="B437" s="139">
         <v>1430</v>
       </c>
       <c r="C437" s="70" t="s">
@@ -18826,7 +18854,7 @@
       <c r="A438" s="113">
         <v>41684</v>
       </c>
-      <c r="B438" s="72">
+      <c r="B438" s="139">
         <v>1500</v>
       </c>
       <c r="C438" s="70" t="s">
@@ -18861,7 +18889,7 @@
       <c r="A439" s="113">
         <v>41691</v>
       </c>
-      <c r="B439" s="72">
+      <c r="B439" s="139">
         <v>1800</v>
       </c>
       <c r="C439" s="70" t="s">
@@ -18896,7 +18924,7 @@
       <c r="A440" s="113">
         <v>41655</v>
       </c>
-      <c r="B440" s="72">
+      <c r="B440" s="139">
         <v>1435</v>
       </c>
       <c r="C440" s="70" t="s">
@@ -18931,7 +18959,7 @@
       <c r="A441" s="113">
         <v>41691</v>
       </c>
-      <c r="B441" s="72">
+      <c r="B441" s="139">
         <v>1715</v>
       </c>
       <c r="C441" s="70" t="s">
@@ -18964,7 +18992,7 @@
     </row>
     <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="113"/>
-      <c r="B442" s="72"/>
+      <c r="B442" s="139"/>
       <c r="C442" s="70"/>
       <c r="D442" s="72"/>
       <c r="H442" s="70">
@@ -18981,7 +19009,7 @@
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="113"/>
-      <c r="B443" s="72"/>
+      <c r="B443" s="139"/>
       <c r="C443" s="70"/>
       <c r="D443" s="72"/>
       <c r="H443" s="70">
@@ -19000,7 +19028,7 @@
       <c r="A444" s="113">
         <v>41691</v>
       </c>
-      <c r="B444" s="72">
+      <c r="B444" s="139">
         <v>1745</v>
       </c>
       <c r="C444" s="70" t="s">
@@ -19035,7 +19063,7 @@
       <c r="A445" s="113">
         <v>41691</v>
       </c>
-      <c r="B445" s="72">
+      <c r="B445" s="139">
         <v>1730</v>
       </c>
       <c r="C445" s="70" t="s">
@@ -19073,7 +19101,7 @@
       <c r="A446" s="113">
         <v>41690</v>
       </c>
-      <c r="B446" s="72">
+      <c r="B446" s="139">
         <v>1348</v>
       </c>
       <c r="C446" s="70" t="s">
@@ -19111,7 +19139,7 @@
       <c r="A447" s="113">
         <v>41690</v>
       </c>
-      <c r="B447" s="72">
+      <c r="B447" s="139">
         <v>1248</v>
       </c>
       <c r="C447" s="70" t="s">
@@ -19146,7 +19174,7 @@
       <c r="A448" s="113">
         <v>41690</v>
       </c>
-      <c r="B448" s="72">
+      <c r="B448" s="139">
         <v>1418</v>
       </c>
       <c r="C448" s="70" t="s">
@@ -19181,7 +19209,7 @@
       <c r="A449" s="113">
         <v>41690</v>
       </c>
-      <c r="B449" s="72">
+      <c r="B449" s="139">
         <v>1245</v>
       </c>
       <c r="C449" s="70" t="s">
@@ -19216,7 +19244,7 @@
       <c r="A450" s="113">
         <v>41679</v>
       </c>
-      <c r="B450" s="72">
+      <c r="B450" s="139">
         <v>1051</v>
       </c>
       <c r="C450" s="70" t="s">
@@ -19251,7 +19279,7 @@
       <c r="A451" s="113">
         <v>41690</v>
       </c>
-      <c r="B451" s="72">
+      <c r="B451" s="139">
         <v>1900</v>
       </c>
       <c r="C451" s="70" t="s">
@@ -19286,7 +19314,7 @@
       <c r="A452" s="113">
         <v>41679</v>
       </c>
-      <c r="B452" s="72">
+      <c r="B452" s="139">
         <v>938</v>
       </c>
       <c r="C452" s="70" t="s">
@@ -19321,7 +19349,7 @@
       <c r="A453" s="114">
         <v>41688</v>
       </c>
-      <c r="B453" s="98">
+      <c r="B453" s="142">
         <v>1830</v>
       </c>
       <c r="C453" s="99" t="s">
@@ -19363,7 +19391,7 @@
       <c r="A454" s="113">
         <v>41679</v>
       </c>
-      <c r="B454" s="72">
+      <c r="B454" s="139">
         <v>942</v>
       </c>
       <c r="C454" s="70" t="s">
@@ -19398,7 +19426,7 @@
       <c r="A455" s="113">
         <v>41679</v>
       </c>
-      <c r="B455" s="72">
+      <c r="B455" s="139">
         <v>939</v>
       </c>
       <c r="C455" s="70" t="s">
@@ -19433,7 +19461,7 @@
       <c r="A456" s="113">
         <v>41679</v>
       </c>
-      <c r="B456" s="72">
+      <c r="B456" s="139">
         <v>1102</v>
       </c>
       <c r="C456" s="70" t="s">
@@ -19468,7 +19496,7 @@
       <c r="A457" s="113">
         <v>41679</v>
       </c>
-      <c r="B457" s="72">
+      <c r="B457" s="139">
         <v>1135</v>
       </c>
       <c r="C457" s="70" t="s">
@@ -19503,7 +19531,7 @@
       <c r="A458" s="113">
         <v>41690</v>
       </c>
-      <c r="B458" s="72">
+      <c r="B458" s="139">
         <v>1220</v>
       </c>
       <c r="C458" s="70" t="s">
@@ -19538,7 +19566,7 @@
       <c r="A459" s="113">
         <v>41688</v>
       </c>
-      <c r="B459" s="72">
+      <c r="B459" s="139">
         <v>1845</v>
       </c>
       <c r="C459" s="70" t="s">
@@ -19573,7 +19601,7 @@
       <c r="A460" s="113">
         <v>41679</v>
       </c>
-      <c r="B460" s="72">
+      <c r="B460" s="139">
         <v>1105</v>
       </c>
       <c r="C460" s="70" t="s">
@@ -19608,7 +19636,7 @@
       <c r="A461" s="113">
         <v>41691</v>
       </c>
-      <c r="B461" s="61">
+      <c r="B461" s="82">
         <v>1815</v>
       </c>
       <c r="C461" s="61" t="s">
@@ -19643,7 +19671,7 @@
       <c r="A462" s="113">
         <v>41684</v>
       </c>
-      <c r="B462" s="61">
+      <c r="B462" s="82">
         <v>1430</v>
       </c>
       <c r="C462" s="61" t="s">
@@ -19678,7 +19706,7 @@
       <c r="A463" s="113">
         <v>41684</v>
       </c>
-      <c r="B463" s="61">
+      <c r="B463" s="82">
         <v>1410</v>
       </c>
       <c r="C463" s="61" t="s">
@@ -19713,7 +19741,7 @@
       <c r="A464" s="113">
         <v>41664</v>
       </c>
-      <c r="B464" s="61">
+      <c r="B464" s="82">
         <v>1242</v>
       </c>
       <c r="C464" s="61" t="s">
@@ -19748,7 +19776,7 @@
       <c r="A465" s="113">
         <v>41664</v>
       </c>
-      <c r="B465" s="61">
+      <c r="B465" s="82">
         <v>1212</v>
       </c>
       <c r="C465" s="61" t="s">
@@ -19783,7 +19811,7 @@
       <c r="A466" s="113">
         <v>41664</v>
       </c>
-      <c r="B466" s="61">
+      <c r="B466" s="82">
         <v>1142</v>
       </c>
       <c r="C466" s="61" t="s">
@@ -19818,7 +19846,7 @@
       <c r="A467" s="113">
         <v>41664</v>
       </c>
-      <c r="B467" s="61">
+      <c r="B467" s="82">
         <v>1112</v>
       </c>
       <c r="C467" s="61" t="s">
@@ -19853,7 +19881,7 @@
       <c r="A468" s="113">
         <v>41664</v>
       </c>
-      <c r="B468" s="61">
+      <c r="B468" s="82">
         <v>1042</v>
       </c>
       <c r="C468" s="61" t="s">
@@ -20277,7 +20305,6 @@
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" s="113"/>
-      <c r="B480" s="82"/>
       <c r="H480" s="61">
         <v>127</v>
       </c>
@@ -20327,7 +20354,6 @@
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" s="113"/>
-      <c r="B482" s="82"/>
       <c r="H482" s="61">
         <v>127</v>
       </c>
@@ -20377,7 +20403,6 @@
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" s="113"/>
-      <c r="B484" s="82"/>
       <c r="H484" s="61">
         <v>131</v>
       </c>
@@ -20599,7 +20624,6 @@
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" s="113"/>
-      <c r="B491" s="82"/>
       <c r="H491" s="61">
         <v>130</v>
       </c>
@@ -21033,7 +21057,6 @@
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B503" s="82"/>
       <c r="D503" s="61"/>
       <c r="E503" s="63"/>
       <c r="F503" s="61"/>
@@ -21086,7 +21109,6 @@
       </c>
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B505" s="82"/>
       <c r="D505" s="61"/>
       <c r="E505" s="63"/>
       <c r="F505" s="61"/>
@@ -21101,7 +21123,6 @@
       <c r="Q505" s="68"/>
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B506" s="82"/>
       <c r="D506" s="61"/>
       <c r="E506" s="63"/>
       <c r="F506" s="61"/>
@@ -21271,7 +21292,6 @@
       </c>
     </row>
     <row r="511" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B511" s="82"/>
       <c r="D511" s="61"/>
       <c r="E511" s="63"/>
       <c r="F511" s="61"/>
@@ -21327,7 +21347,6 @@
       </c>
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B513" s="82"/>
       <c r="D513" s="61"/>
       <c r="E513" s="63"/>
       <c r="F513" s="61"/>
@@ -21342,7 +21361,6 @@
       <c r="Q513" s="68"/>
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B514" s="82"/>
       <c r="D514" s="61"/>
       <c r="E514" s="63"/>
       <c r="F514" s="61"/>
@@ -21395,7 +21413,6 @@
       </c>
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B516" s="82"/>
       <c r="D516" s="61"/>
       <c r="E516" s="63"/>
       <c r="F516" s="61"/>
@@ -21777,7 +21794,6 @@
       <c r="A528" s="108">
         <v>41691</v>
       </c>
-      <c r="B528" s="82"/>
       <c r="C528" s="61" t="s">
         <v>36</v>
       </c>
@@ -21833,7 +21849,6 @@
       <c r="A530" s="108">
         <v>41691</v>
       </c>
-      <c r="B530" s="82"/>
       <c r="C530" s="61" t="s">
         <v>36</v>
       </c>
@@ -23781,6 +23796,307 @@
       <c r="Q577" s="121">
         <f t="shared" si="81"/>
         <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="578" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="129"/>
+      <c r="B578" s="143"/>
+      <c r="C578" s="130"/>
+      <c r="D578" s="131"/>
+      <c r="E578" s="132"/>
+      <c r="F578" s="133"/>
+      <c r="G578" s="130"/>
+      <c r="H578" s="130"/>
+      <c r="I578" s="130"/>
+      <c r="J578" s="130"/>
+      <c r="K578" s="130"/>
+      <c r="L578" s="130"/>
+      <c r="M578" s="130"/>
+      <c r="N578" s="130"/>
+      <c r="O578" s="130"/>
+      <c r="P578" s="130"/>
+      <c r="Q578" s="131"/>
+    </row>
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A579" s="108">
+        <v>41946</v>
+      </c>
+      <c r="B579" s="82">
+        <v>1815</v>
+      </c>
+      <c r="C579" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D579" s="68">
+        <v>1</v>
+      </c>
+      <c r="E579" s="60">
+        <v>41955</v>
+      </c>
+      <c r="F579" s="62">
+        <v>1315</v>
+      </c>
+      <c r="H579" s="61">
+        <v>129</v>
+      </c>
+      <c r="I579" s="61">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A580" s="108">
+        <v>41946</v>
+      </c>
+      <c r="B580" s="82">
+        <v>1815</v>
+      </c>
+      <c r="C580" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D580" s="68">
+        <v>2</v>
+      </c>
+      <c r="E580" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H580" s="61">
+        <v>128</v>
+      </c>
+      <c r="I580" s="61">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A581" s="108">
+        <v>41946</v>
+      </c>
+      <c r="B581" s="82">
+        <v>1830</v>
+      </c>
+      <c r="C581" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D581" s="68">
+        <v>3</v>
+      </c>
+      <c r="E581" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H581" s="61">
+        <v>128</v>
+      </c>
+      <c r="I581" s="61">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A582" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B582" s="82">
+        <v>137</v>
+      </c>
+      <c r="C582" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D582" s="68">
+        <v>1</v>
+      </c>
+      <c r="E582" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H582" s="61">
+        <v>128</v>
+      </c>
+      <c r="I582" s="61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A583" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B583" s="82">
+        <v>207</v>
+      </c>
+      <c r="C583" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D583" s="68">
+        <v>2</v>
+      </c>
+      <c r="E583" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H583" s="61">
+        <v>128</v>
+      </c>
+      <c r="I583" s="61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A584" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B584" s="82">
+        <v>237</v>
+      </c>
+      <c r="C584" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D584" s="68">
+        <v>3</v>
+      </c>
+      <c r="E584" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H584" s="61">
+        <v>129</v>
+      </c>
+      <c r="I584" s="61">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A585" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B585" s="82">
+        <v>307</v>
+      </c>
+      <c r="C585" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D585" s="68">
+        <v>4</v>
+      </c>
+      <c r="E585" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H585" s="61">
+        <v>129</v>
+      </c>
+      <c r="I585" s="61">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A586" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B586" s="82">
+        <v>337</v>
+      </c>
+      <c r="C586" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D586" s="68">
+        <v>5</v>
+      </c>
+      <c r="E586" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H586" s="61">
+        <v>128</v>
+      </c>
+      <c r="I586" s="61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A587" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B587" s="82">
+        <v>407</v>
+      </c>
+      <c r="C587" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D587" s="68">
+        <v>6</v>
+      </c>
+      <c r="E587" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H587" s="61">
+        <v>128</v>
+      </c>
+      <c r="I587" s="61">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A588" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B588" s="82">
+        <v>437</v>
+      </c>
+      <c r="C588" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D588" s="68">
+        <v>7</v>
+      </c>
+      <c r="E588" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H588" s="61">
+        <v>126</v>
+      </c>
+      <c r="I588" s="61">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A589" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B589" s="82">
+        <v>507</v>
+      </c>
+      <c r="C589" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D589" s="68">
+        <v>8</v>
+      </c>
+      <c r="E589" s="60">
+        <v>41955</v>
+      </c>
+      <c r="H589" s="61">
+        <v>127</v>
+      </c>
+      <c r="I589" s="61">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A590" s="108">
+        <v>41945</v>
+      </c>
+      <c r="B590" s="82">
+        <v>537</v>
+      </c>
+      <c r="C590" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D590" s="68">
+        <v>9</v>
+      </c>
+      <c r="E590" s="60">
+        <v>41955</v>
+      </c>
+      <c r="F590" s="62">
+        <v>1700</v>
+      </c>
+      <c r="H590" s="61">
+        <v>127</v>
+      </c>
+      <c r="I590" s="61">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -43730,8 +44046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R695"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B396" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A406" sqref="A406:XFD406"/>
